--- a/docs/template.xlsx
+++ b/docs/template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Main\Workspace\NVNA-Schedule-Exporter\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\ВВМУ\Дипломна работа\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95CA315B-F676-41C2-9994-0407C01464AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4578F217-BAC5-4B13-A698-94AFB2EA069C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="template" sheetId="2" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="61">
   <si>
     <t>УТВЪРЖДАВАМ:</t>
   </si>
@@ -318,12 +318,6 @@
       </rPr>
       <t xml:space="preserve"> на обучение</t>
     </r>
-  </si>
-  <si>
-    <t>62221102</t>
-  </si>
-  <si>
-    <t>20000</t>
   </si>
 </sst>
 </file>
@@ -725,22 +719,15 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="9" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -750,6 +737,7 @@
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -760,16 +748,22 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="9" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1034,26 +1028,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AQ402"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="Q89" sqref="Q89"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="H62" sqref="A62:H62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="12.69921875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.75" customWidth="1"/>
+    <col min="1" max="1" width="5.69921875" customWidth="1"/>
     <col min="2" max="2" width="29.5" customWidth="1"/>
-    <col min="3" max="7" width="4.75" customWidth="1"/>
-    <col min="8" max="8" width="6.1640625" customWidth="1"/>
-    <col min="9" max="13" width="5.1640625" customWidth="1"/>
-    <col min="14" max="15" width="4.4140625" customWidth="1"/>
+    <col min="3" max="7" width="4.69921875" customWidth="1"/>
+    <col min="8" max="8" width="6.19921875" customWidth="1"/>
+    <col min="9" max="13" width="5.19921875" customWidth="1"/>
+    <col min="14" max="15" width="4.3984375" customWidth="1"/>
     <col min="16" max="16" width="4.5" customWidth="1"/>
-    <col min="17" max="21" width="5.1640625" customWidth="1"/>
-    <col min="22" max="22" width="4.1640625" customWidth="1"/>
+    <col min="17" max="21" width="5.19921875" customWidth="1"/>
+    <col min="22" max="22" width="4.19921875" customWidth="1"/>
     <col min="23" max="23" width="6" customWidth="1"/>
     <col min="24" max="43" width="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1102,7 +1096,7 @@
       <c r="AP1" s="4"/>
       <c r="AQ1" s="4"/>
     </row>
-    <row r="2" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -1149,7 +1143,7 @@
       <c r="AP2" s="4"/>
       <c r="AQ2" s="4"/>
     </row>
-    <row r="3" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -1196,33 +1190,33 @@
       <c r="AP3" s="4"/>
       <c r="AQ3" s="4"/>
     </row>
-    <row r="4" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="72" t="s">
+    <row r="4" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="70" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="73"/>
-      <c r="C4" s="73"/>
-      <c r="D4" s="73"/>
-      <c r="E4" s="73"/>
-      <c r="F4" s="73"/>
-      <c r="G4" s="73"/>
-      <c r="H4" s="73"/>
-      <c r="I4" s="73"/>
-      <c r="J4" s="73"/>
-      <c r="K4" s="73"/>
-      <c r="L4" s="73"/>
-      <c r="M4" s="73"/>
-      <c r="N4" s="73"/>
-      <c r="O4" s="73"/>
-      <c r="P4" s="73"/>
-      <c r="Q4" s="73"/>
-      <c r="R4" s="73"/>
-      <c r="S4" s="73"/>
-      <c r="T4" s="73"/>
-      <c r="U4" s="73"/>
-      <c r="V4" s="73"/>
-      <c r="W4" s="73"/>
-      <c r="X4" s="73"/>
+      <c r="B4" s="71"/>
+      <c r="C4" s="71"/>
+      <c r="D4" s="71"/>
+      <c r="E4" s="71"/>
+      <c r="F4" s="71"/>
+      <c r="G4" s="71"/>
+      <c r="H4" s="71"/>
+      <c r="I4" s="71"/>
+      <c r="J4" s="71"/>
+      <c r="K4" s="71"/>
+      <c r="L4" s="71"/>
+      <c r="M4" s="71"/>
+      <c r="N4" s="71"/>
+      <c r="O4" s="71"/>
+      <c r="P4" s="71"/>
+      <c r="Q4" s="71"/>
+      <c r="R4" s="71"/>
+      <c r="S4" s="71"/>
+      <c r="T4" s="71"/>
+      <c r="U4" s="71"/>
+      <c r="V4" s="71"/>
+      <c r="W4" s="71"/>
+      <c r="X4" s="71"/>
       <c r="Y4" s="1"/>
       <c r="Z4" s="1"/>
       <c r="AA4" s="1"/>
@@ -1243,7 +1237,7 @@
       <c r="AP4" s="4"/>
       <c r="AQ4" s="4"/>
     </row>
-    <row r="5" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="5"/>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
@@ -1288,33 +1282,33 @@
       <c r="AP5" s="4"/>
       <c r="AQ5" s="4"/>
     </row>
-    <row r="6" spans="1:43" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="72" t="s">
+    <row r="6" spans="1:43" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="70" t="s">
         <v>58</v>
       </c>
-      <c r="B6" s="73"/>
-      <c r="C6" s="73"/>
-      <c r="D6" s="73"/>
-      <c r="E6" s="73"/>
-      <c r="F6" s="73"/>
-      <c r="G6" s="73"/>
-      <c r="H6" s="73"/>
-      <c r="I6" s="73"/>
-      <c r="J6" s="73"/>
-      <c r="K6" s="73"/>
-      <c r="L6" s="73"/>
-      <c r="M6" s="73"/>
-      <c r="N6" s="73"/>
-      <c r="O6" s="73"/>
-      <c r="P6" s="73"/>
-      <c r="Q6" s="73"/>
-      <c r="R6" s="73"/>
-      <c r="S6" s="73"/>
-      <c r="T6" s="73"/>
-      <c r="U6" s="73"/>
-      <c r="V6" s="73"/>
-      <c r="W6" s="73"/>
-      <c r="X6" s="73"/>
+      <c r="B6" s="71"/>
+      <c r="C6" s="71"/>
+      <c r="D6" s="71"/>
+      <c r="E6" s="71"/>
+      <c r="F6" s="71"/>
+      <c r="G6" s="71"/>
+      <c r="H6" s="71"/>
+      <c r="I6" s="71"/>
+      <c r="J6" s="71"/>
+      <c r="K6" s="71"/>
+      <c r="L6" s="71"/>
+      <c r="M6" s="71"/>
+      <c r="N6" s="71"/>
+      <c r="O6" s="71"/>
+      <c r="P6" s="71"/>
+      <c r="Q6" s="71"/>
+      <c r="R6" s="71"/>
+      <c r="S6" s="71"/>
+      <c r="T6" s="71"/>
+      <c r="U6" s="71"/>
+      <c r="V6" s="71"/>
+      <c r="W6" s="71"/>
+      <c r="X6" s="71"/>
       <c r="Y6" s="1"/>
       <c r="Z6" s="1"/>
       <c r="AA6" s="1"/>
@@ -1335,7 +1329,7 @@
       <c r="AP6" s="1"/>
       <c r="AQ6" s="1"/>
     </row>
-    <row r="7" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7"/>
       <c r="B7" s="7"/>
       <c r="C7" s="7"/>
@@ -1380,15 +1374,15 @@
       <c r="AP7" s="1"/>
       <c r="AQ7" s="1"/>
     </row>
-    <row r="8" spans="1:43" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="74" t="s">
+    <row r="8" spans="1:43" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="72" t="s">
         <v>5</v>
       </c>
       <c r="B8" s="60"/>
-      <c r="C8" s="69"/>
+      <c r="C8" s="66"/>
       <c r="D8" s="60"/>
       <c r="E8" s="61"/>
-      <c r="F8" s="75"/>
+      <c r="F8" s="73"/>
       <c r="G8" s="60"/>
       <c r="H8" s="60"/>
       <c r="I8" s="60"/>
@@ -1398,7 +1392,7 @@
       <c r="M8" s="60"/>
       <c r="N8" s="60"/>
       <c r="O8" s="61"/>
-      <c r="P8" s="69" t="s">
+      <c r="P8" s="66" t="s">
         <v>6</v>
       </c>
       <c r="Q8" s="60"/>
@@ -1429,8 +1423,8 @@
       <c r="AP8" s="10"/>
       <c r="AQ8" s="10"/>
     </row>
-    <row r="9" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="76" t="s">
+    <row r="9" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="65" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="60"/>
@@ -1440,7 +1434,7 @@
       <c r="F9" s="60"/>
       <c r="G9" s="60"/>
       <c r="H9" s="61"/>
-      <c r="I9" s="76" t="s">
+      <c r="I9" s="65" t="s">
         <v>8</v>
       </c>
       <c r="J9" s="60"/>
@@ -1456,7 +1450,7 @@
       <c r="T9" s="60"/>
       <c r="U9" s="60"/>
       <c r="V9" s="61"/>
-      <c r="W9" s="70" t="s">
+      <c r="W9" s="67" t="s">
         <v>9</v>
       </c>
       <c r="X9" s="1"/>
@@ -1480,18 +1474,18 @@
       <c r="AP9" s="1"/>
       <c r="AQ9" s="1"/>
     </row>
-    <row r="10" spans="1:43" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:43" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="11"/>
       <c r="B10" s="12"/>
       <c r="C10" s="12"/>
       <c r="D10" s="13"/>
-      <c r="E10" s="65" t="s">
+      <c r="E10" s="76" t="s">
         <v>10</v>
       </c>
       <c r="F10" s="60"/>
       <c r="G10" s="61"/>
       <c r="H10" s="14"/>
-      <c r="I10" s="66" t="s">
+      <c r="I10" s="77" t="s">
         <v>11</v>
       </c>
       <c r="J10" s="60"/>
@@ -1507,7 +1501,7 @@
       <c r="T10" s="16"/>
       <c r="U10" s="16"/>
       <c r="V10" s="17"/>
-      <c r="W10" s="71"/>
+      <c r="W10" s="68"/>
       <c r="X10" s="1"/>
       <c r="Y10" s="1"/>
       <c r="Z10" s="1"/>
@@ -1529,7 +1523,7 @@
       <c r="AP10" s="1"/>
       <c r="AQ10" s="1"/>
     </row>
-    <row r="11" spans="1:43" ht="172.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:43" ht="172.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
         <v>12</v>
       </c>
@@ -1596,7 +1590,7 @@
       <c r="V11" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="W11" s="64"/>
+      <c r="W11" s="69"/>
       <c r="X11" s="1"/>
       <c r="Y11" s="1"/>
       <c r="Z11" s="1"/>
@@ -1618,8 +1612,8 @@
       <c r="AP11" s="1"/>
       <c r="AQ11" s="1"/>
     </row>
-    <row r="12" spans="1:43" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="67" t="s">
+    <row r="12" spans="1:43" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="78" t="s">
         <v>31</v>
       </c>
       <c r="B12" s="60"/>
@@ -1691,32 +1685,15 @@
       <c r="AP12" s="1"/>
       <c r="AQ12" s="1"/>
     </row>
-    <row r="13" spans="1:43" ht="14" x14ac:dyDescent="0.3">
-      <c r="A13" s="50" t="s">
-        <v>62</v>
-      </c>
-      <c r="B13" s="51">
-        <v>100001</v>
-      </c>
-      <c r="C13" s="51">
-        <v>40</v>
-      </c>
-      <c r="D13" s="26">
-        <v>15</v>
-      </c>
-      <c r="E13" s="24">
-        <v>1</v>
-      </c>
-      <c r="F13" s="24">
-        <v>20</v>
-      </c>
-      <c r="G13" s="24">
-        <v>20</v>
-      </c>
-      <c r="H13" s="25">
-        <f t="shared" ref="H13:H26" si="0">((IF(C13&lt;100,IF(C13&lt;10,0.1*C13*D13*2,D13*2),D13*3)+G13*(IF(F13&lt;=10,0.1*F13,1))))</f>
-        <v>50</v>
-      </c>
+    <row r="13" spans="1:43" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A13" s="50"/>
+      <c r="B13" s="51"/>
+      <c r="C13" s="51"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="24"/>
+      <c r="G13" s="24"/>
+      <c r="H13" s="25"/>
       <c r="I13" s="26"/>
       <c r="J13" s="26"/>
       <c r="K13" s="24"/>
@@ -1731,12 +1708,12 @@
       <c r="T13" s="24"/>
       <c r="U13" s="24"/>
       <c r="V13" s="25">
-        <f t="shared" ref="V13:V26" si="1">(I13*0.25)+(J13*0.15)+(K13*0.1)+(L13*0.1)+(M13*0.3)+(N13*4)+(O13*4)+(IF((P13*15)&gt;40,40,(P13*15)))+(IF((Q13*2)&gt;16,16,(Q13*2)))+(R13*120)+(S13*60)+(IF((T13*3)&gt;15,15,(T13*3))+(IF((U13*6)&gt;60,60,(U13*6))))</f>
+        <f t="shared" ref="V13:V26" si="0">(I13*0.25)+(J13*0.15)+(K13*0.1)+(L13*0.1)+(M13*0.3)+(N13*4)+(O13*4)+(IF((P13*15)&gt;40,40,(P13*15)))+(IF((Q13*2)&gt;16,16,(Q13*2)))+(R13*120)+(S13*60)+(IF((T13*3)&gt;15,15,(T13*3))+(IF((U13*6)&gt;60,60,(U13*6))))</f>
         <v>0</v>
       </c>
       <c r="W13" s="25">
-        <f t="shared" ref="W13:W26" si="2">SUM(H13+V13)</f>
-        <v>50</v>
+        <f t="shared" ref="W13:W26" si="1">SUM(H13+V13)</f>
+        <v>0</v>
       </c>
       <c r="X13" s="27"/>
       <c r="Y13" s="28"/>
@@ -1759,7 +1736,7 @@
       <c r="AP13" s="28"/>
       <c r="AQ13" s="28"/>
     </row>
-    <row r="14" spans="1:43" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:43" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="35"/>
       <c r="B14" s="29"/>
       <c r="C14" s="24"/>
@@ -1768,7 +1745,7 @@
       <c r="F14" s="24"/>
       <c r="G14" s="24"/>
       <c r="H14" s="25">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="H13:H26" si="2">((IF(C14&lt;100,IF(C14&lt;10,0.1*C14*D14*2,D14*2),D14*3)+G14*(IF(F14&lt;=10,0.1*F14,1))))</f>
         <v>0</v>
       </c>
       <c r="I14" s="24"/>
@@ -1785,11 +1762,11 @@
       <c r="T14" s="24"/>
       <c r="U14" s="24"/>
       <c r="V14" s="25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W14" s="25">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="W14" s="25">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="X14" s="28"/>
@@ -1813,7 +1790,7 @@
       <c r="AP14" s="28"/>
       <c r="AQ14" s="28"/>
     </row>
-    <row r="15" spans="1:43" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:43" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="35"/>
       <c r="B15" s="29"/>
       <c r="C15" s="24"/>
@@ -1822,7 +1799,7 @@
       <c r="F15" s="24"/>
       <c r="G15" s="24"/>
       <c r="H15" s="25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I15" s="24"/>
@@ -1839,11 +1816,11 @@
       <c r="T15" s="24"/>
       <c r="U15" s="24"/>
       <c r="V15" s="25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W15" s="25">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="W15" s="25">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="X15" s="28"/>
@@ -1867,7 +1844,7 @@
       <c r="AP15" s="28"/>
       <c r="AQ15" s="28"/>
     </row>
-    <row r="16" spans="1:43" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:43" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="35"/>
       <c r="B16" s="29"/>
       <c r="C16" s="24"/>
@@ -1876,7 +1853,7 @@
       <c r="F16" s="24"/>
       <c r="G16" s="24"/>
       <c r="H16" s="25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I16" s="24"/>
@@ -1893,11 +1870,11 @@
       <c r="T16" s="24"/>
       <c r="U16" s="24"/>
       <c r="V16" s="25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W16" s="25">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="W16" s="25">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="X16" s="28"/>
@@ -1921,7 +1898,7 @@
       <c r="AP16" s="28"/>
       <c r="AQ16" s="28"/>
     </row>
-    <row r="17" spans="1:43" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:43" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="35"/>
       <c r="B17" s="29"/>
       <c r="C17" s="24"/>
@@ -1930,7 +1907,7 @@
       <c r="F17" s="24"/>
       <c r="G17" s="24"/>
       <c r="H17" s="25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I17" s="24"/>
@@ -1947,11 +1924,11 @@
       <c r="T17" s="24"/>
       <c r="U17" s="24"/>
       <c r="V17" s="25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W17" s="25">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="W17" s="25">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="X17" s="28"/>
@@ -1975,7 +1952,7 @@
       <c r="AP17" s="28"/>
       <c r="AQ17" s="28"/>
     </row>
-    <row r="18" spans="1:43" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:43" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="35"/>
       <c r="B18" s="29"/>
       <c r="C18" s="24"/>
@@ -1984,7 +1961,7 @@
       <c r="F18" s="24"/>
       <c r="G18" s="24"/>
       <c r="H18" s="25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I18" s="24"/>
@@ -2001,11 +1978,11 @@
       <c r="T18" s="24"/>
       <c r="U18" s="24"/>
       <c r="V18" s="25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W18" s="25">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="W18" s="25">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="X18" s="28"/>
@@ -2029,7 +2006,7 @@
       <c r="AP18" s="28"/>
       <c r="AQ18" s="28"/>
     </row>
-    <row r="19" spans="1:43" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:43" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="35"/>
       <c r="B19" s="29"/>
       <c r="C19" s="24"/>
@@ -2038,7 +2015,7 @@
       <c r="F19" s="24"/>
       <c r="G19" s="24"/>
       <c r="H19" s="25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I19" s="24"/>
@@ -2055,11 +2032,11 @@
       <c r="T19" s="24"/>
       <c r="U19" s="24"/>
       <c r="V19" s="25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W19" s="25">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="W19" s="25">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="X19" s="28"/>
@@ -2083,7 +2060,7 @@
       <c r="AP19" s="28"/>
       <c r="AQ19" s="28"/>
     </row>
-    <row r="20" spans="1:43" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:43" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="35"/>
       <c r="B20" s="29"/>
       <c r="C20" s="24"/>
@@ -2092,7 +2069,7 @@
       <c r="F20" s="24"/>
       <c r="G20" s="24"/>
       <c r="H20" s="25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I20" s="24"/>
@@ -2109,11 +2086,11 @@
       <c r="T20" s="24"/>
       <c r="U20" s="24"/>
       <c r="V20" s="25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W20" s="25">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="W20" s="25">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="X20" s="28"/>
@@ -2137,7 +2114,7 @@
       <c r="AP20" s="28"/>
       <c r="AQ20" s="28"/>
     </row>
-    <row r="21" spans="1:43" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:43" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="35"/>
       <c r="B21" s="29"/>
       <c r="C21" s="24"/>
@@ -2146,7 +2123,7 @@
       <c r="F21" s="24"/>
       <c r="G21" s="24"/>
       <c r="H21" s="25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I21" s="24"/>
@@ -2163,11 +2140,11 @@
       <c r="T21" s="24"/>
       <c r="U21" s="24"/>
       <c r="V21" s="25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W21" s="25">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="W21" s="25">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="X21" s="28"/>
@@ -2191,7 +2168,7 @@
       <c r="AP21" s="28"/>
       <c r="AQ21" s="28"/>
     </row>
-    <row r="22" spans="1:43" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:43" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="35"/>
       <c r="B22" s="29"/>
       <c r="C22" s="24"/>
@@ -2200,7 +2177,7 @@
       <c r="F22" s="24"/>
       <c r="G22" s="24"/>
       <c r="H22" s="25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I22" s="24"/>
@@ -2217,11 +2194,11 @@
       <c r="T22" s="24"/>
       <c r="U22" s="24"/>
       <c r="V22" s="25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W22" s="25">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="W22" s="25">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="X22" s="28"/>
@@ -2245,7 +2222,7 @@
       <c r="AP22" s="28"/>
       <c r="AQ22" s="28"/>
     </row>
-    <row r="23" spans="1:43" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:43" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="35"/>
       <c r="B23" s="29"/>
       <c r="C23" s="24"/>
@@ -2254,7 +2231,7 @@
       <c r="F23" s="24"/>
       <c r="G23" s="24"/>
       <c r="H23" s="25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I23" s="24"/>
@@ -2271,11 +2248,11 @@
       <c r="T23" s="24"/>
       <c r="U23" s="24"/>
       <c r="V23" s="25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W23" s="25">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="W23" s="25">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="X23" s="28"/>
@@ -2299,7 +2276,7 @@
       <c r="AP23" s="28"/>
       <c r="AQ23" s="28"/>
     </row>
-    <row r="24" spans="1:43" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:43" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="35"/>
       <c r="B24" s="29"/>
       <c r="C24" s="24"/>
@@ -2308,7 +2285,7 @@
       <c r="F24" s="24"/>
       <c r="G24" s="24"/>
       <c r="H24" s="25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I24" s="24"/>
@@ -2325,11 +2302,11 @@
       <c r="T24" s="24"/>
       <c r="U24" s="24"/>
       <c r="V24" s="25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W24" s="25">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="W24" s="25">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="X24" s="28"/>
@@ -2353,7 +2330,7 @@
       <c r="AP24" s="28"/>
       <c r="AQ24" s="28"/>
     </row>
-    <row r="25" spans="1:43" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:43" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="35"/>
       <c r="B25" s="29"/>
       <c r="C25" s="24"/>
@@ -2362,7 +2339,7 @@
       <c r="F25" s="24"/>
       <c r="G25" s="24"/>
       <c r="H25" s="25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I25" s="24"/>
@@ -2379,11 +2356,11 @@
       <c r="T25" s="24"/>
       <c r="U25" s="24"/>
       <c r="V25" s="25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W25" s="25">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="W25" s="25">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="X25" s="28"/>
@@ -2407,7 +2384,7 @@
       <c r="AP25" s="28"/>
       <c r="AQ25" s="28"/>
     </row>
-    <row r="26" spans="1:43" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:43" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="35"/>
       <c r="B26" s="29"/>
       <c r="C26" s="24"/>
@@ -2416,7 +2393,7 @@
       <c r="F26" s="24"/>
       <c r="G26" s="24"/>
       <c r="H26" s="25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I26" s="24"/>
@@ -2433,11 +2410,11 @@
       <c r="T26" s="24"/>
       <c r="U26" s="24"/>
       <c r="V26" s="25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W26" s="25">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="W26" s="25">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="X26" s="28"/>
@@ -2461,8 +2438,8 @@
       <c r="AP26" s="28"/>
       <c r="AQ26" s="28"/>
     </row>
-    <row r="27" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="67" t="s">
+    <row r="27" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="78" t="s">
         <v>34</v>
       </c>
       <c r="B27" s="60"/>
@@ -2534,7 +2511,7 @@
       <c r="AP27" s="28"/>
       <c r="AQ27" s="28"/>
     </row>
-    <row r="28" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="54"/>
       <c r="B28" s="52"/>
       <c r="C28" s="51"/>
@@ -2579,7 +2556,7 @@
       <c r="AP28" s="28"/>
       <c r="AQ28" s="28"/>
     </row>
-    <row r="29" spans="1:43" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:43" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="35"/>
       <c r="B29" s="31"/>
       <c r="C29" s="24"/>
@@ -2633,7 +2610,7 @@
       <c r="AP29" s="28"/>
       <c r="AQ29" s="28"/>
     </row>
-    <row r="30" spans="1:43" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:43" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="35"/>
       <c r="B30" s="29"/>
       <c r="C30" s="24"/>
@@ -2687,8 +2664,8 @@
       <c r="AP30" s="28"/>
       <c r="AQ30" s="28"/>
     </row>
-    <row r="31" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="67" t="s">
+    <row r="31" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="78" t="s">
         <v>35</v>
       </c>
       <c r="B31" s="60"/>
@@ -2760,7 +2737,7 @@
       <c r="AP31" s="28"/>
       <c r="AQ31" s="28"/>
     </row>
-    <row r="32" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="35"/>
       <c r="B32" s="29"/>
       <c r="C32" s="24"/>
@@ -2814,7 +2791,7 @@
       <c r="AP32" s="28"/>
       <c r="AQ32" s="28"/>
     </row>
-    <row r="33" spans="1:43" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:43" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="35"/>
       <c r="B33" s="29"/>
       <c r="C33" s="24"/>
@@ -2868,7 +2845,7 @@
       <c r="AP33" s="28"/>
       <c r="AQ33" s="28"/>
     </row>
-    <row r="34" spans="1:43" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:43" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="35"/>
       <c r="B34" s="31"/>
       <c r="C34" s="24"/>
@@ -2922,7 +2899,7 @@
       <c r="AP34" s="28"/>
       <c r="AQ34" s="28"/>
     </row>
-    <row r="35" spans="1:43" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:43" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="35"/>
       <c r="B35" s="31"/>
       <c r="C35" s="24"/>
@@ -2976,7 +2953,7 @@
       <c r="AP35" s="28"/>
       <c r="AQ35" s="28"/>
     </row>
-    <row r="36" spans="1:43" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:43" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="35"/>
       <c r="B36" s="29"/>
       <c r="C36" s="24"/>
@@ -3030,8 +3007,8 @@
       <c r="AP36" s="28"/>
       <c r="AQ36" s="28"/>
     </row>
-    <row r="37" spans="1:43" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="67" t="s">
+    <row r="37" spans="1:43" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="78" t="s">
         <v>36</v>
       </c>
       <c r="B37" s="60"/>
@@ -3041,43 +3018,43 @@
       <c r="F37" s="60"/>
       <c r="G37" s="61"/>
       <c r="H37" s="37"/>
-      <c r="I37" s="63" t="s">
+      <c r="I37" s="74" t="s">
         <v>32</v>
       </c>
-      <c r="J37" s="63" t="s">
+      <c r="J37" s="74" t="s">
         <v>32</v>
       </c>
-      <c r="K37" s="63" t="s">
+      <c r="K37" s="74" t="s">
         <v>32</v>
       </c>
-      <c r="L37" s="63" t="s">
+      <c r="L37" s="74" t="s">
         <v>32</v>
       </c>
-      <c r="M37" s="63" t="s">
+      <c r="M37" s="74" t="s">
         <v>32</v>
       </c>
-      <c r="N37" s="63" t="s">
+      <c r="N37" s="74" t="s">
         <v>32</v>
       </c>
-      <c r="O37" s="63" t="s">
+      <c r="O37" s="74" t="s">
         <v>32</v>
       </c>
-      <c r="P37" s="63" t="s">
+      <c r="P37" s="74" t="s">
         <v>32</v>
       </c>
-      <c r="Q37" s="63" t="s">
+      <c r="Q37" s="74" t="s">
         <v>32</v>
       </c>
-      <c r="R37" s="63" t="s">
+      <c r="R37" s="74" t="s">
         <v>32</v>
       </c>
-      <c r="S37" s="63" t="s">
+      <c r="S37" s="74" t="s">
         <v>32</v>
       </c>
-      <c r="T37" s="68" t="s">
+      <c r="T37" s="75" t="s">
         <v>33</v>
       </c>
-      <c r="U37" s="68" t="s">
+      <c r="U37" s="75" t="s">
         <v>33</v>
       </c>
       <c r="V37" s="25"/>
@@ -3103,38 +3080,38 @@
       <c r="AP37" s="28"/>
       <c r="AQ37" s="28"/>
     </row>
-    <row r="38" spans="1:43" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:43" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="38" t="s">
         <v>37</v>
       </c>
       <c r="B38" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="C38" s="67" t="s">
+      <c r="C38" s="78" t="s">
         <v>39</v>
       </c>
       <c r="D38" s="60"/>
       <c r="E38" s="61"/>
-      <c r="F38" s="67" t="s">
+      <c r="F38" s="78" t="s">
         <v>40</v>
       </c>
       <c r="G38" s="61"/>
       <c r="H38" s="39" t="s">
         <v>41</v>
       </c>
-      <c r="I38" s="64"/>
-      <c r="J38" s="64"/>
-      <c r="K38" s="64"/>
-      <c r="L38" s="64"/>
-      <c r="M38" s="64"/>
-      <c r="N38" s="64"/>
-      <c r="O38" s="64"/>
-      <c r="P38" s="64"/>
-      <c r="Q38" s="64"/>
-      <c r="R38" s="64"/>
-      <c r="S38" s="64"/>
-      <c r="T38" s="64"/>
-      <c r="U38" s="64"/>
+      <c r="I38" s="69"/>
+      <c r="J38" s="69"/>
+      <c r="K38" s="69"/>
+      <c r="L38" s="69"/>
+      <c r="M38" s="69"/>
+      <c r="N38" s="69"/>
+      <c r="O38" s="69"/>
+      <c r="P38" s="69"/>
+      <c r="Q38" s="69"/>
+      <c r="R38" s="69"/>
+      <c r="S38" s="69"/>
+      <c r="T38" s="69"/>
+      <c r="U38" s="69"/>
       <c r="V38" s="25"/>
       <c r="W38" s="25"/>
       <c r="X38" s="28"/>
@@ -3158,13 +3135,13 @@
       <c r="AP38" s="28"/>
       <c r="AQ38" s="28"/>
     </row>
-    <row r="39" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="35"/>
       <c r="B39" s="29"/>
-      <c r="C39" s="62"/>
+      <c r="C39" s="79"/>
       <c r="D39" s="60"/>
       <c r="E39" s="61"/>
-      <c r="F39" s="62"/>
+      <c r="F39" s="79"/>
       <c r="G39" s="61"/>
       <c r="H39" s="25">
         <f t="shared" ref="H39" si="9">(C39*2+F39)*0.15</f>
@@ -3212,7 +3189,7 @@
       <c r="AP39" s="28"/>
       <c r="AQ39" s="28"/>
     </row>
-    <row r="40" spans="1:43" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:43" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="59" t="s">
         <v>42</v>
       </c>
@@ -3285,7 +3262,7 @@
       <c r="AP40" s="1"/>
       <c r="AQ40" s="1"/>
     </row>
-    <row r="41" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="56"/>
       <c r="B41" s="57"/>
       <c r="C41" s="57"/>
@@ -3330,7 +3307,7 @@
       <c r="AP41" s="28"/>
       <c r="AQ41" s="28"/>
     </row>
-    <row r="42" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="29"/>
       <c r="B42" s="26"/>
       <c r="C42" s="24"/>
@@ -3375,7 +3352,7 @@
       <c r="AP42" s="28"/>
       <c r="AQ42" s="28"/>
     </row>
-    <row r="43" spans="1:43" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:43" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="29"/>
       <c r="B43" s="24"/>
       <c r="C43" s="24"/>
@@ -3429,7 +3406,7 @@
       <c r="AP43" s="28"/>
       <c r="AQ43" s="28"/>
     </row>
-    <row r="44" spans="1:43" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:43" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="29"/>
       <c r="B44" s="24"/>
       <c r="C44" s="24"/>
@@ -3483,7 +3460,7 @@
       <c r="AP44" s="28"/>
       <c r="AQ44" s="28"/>
     </row>
-    <row r="45" spans="1:43" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:43" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="35"/>
       <c r="B45" s="29"/>
       <c r="C45" s="24"/>
@@ -3537,7 +3514,7 @@
       <c r="AP45" s="28"/>
       <c r="AQ45" s="28"/>
     </row>
-    <row r="46" spans="1:43" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:43" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="35"/>
       <c r="B46" s="29"/>
       <c r="C46" s="24"/>
@@ -3591,7 +3568,7 @@
       <c r="AP46" s="28"/>
       <c r="AQ46" s="28"/>
     </row>
-    <row r="47" spans="1:43" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:43" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="35"/>
       <c r="B47" s="29"/>
       <c r="C47" s="24"/>
@@ -3645,7 +3622,7 @@
       <c r="AP47" s="28"/>
       <c r="AQ47" s="28"/>
     </row>
-    <row r="48" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="59" t="s">
         <v>43</v>
       </c>
@@ -3718,7 +3695,7 @@
       <c r="AP48" s="28"/>
       <c r="AQ48" s="28"/>
     </row>
-    <row r="49" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="35"/>
       <c r="B49" s="29"/>
       <c r="C49" s="24"/>
@@ -3772,7 +3749,7 @@
       <c r="AP49" s="28"/>
       <c r="AQ49" s="28"/>
     </row>
-    <row r="50" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="35"/>
       <c r="B50" s="29"/>
       <c r="C50" s="24"/>
@@ -3826,7 +3803,7 @@
       <c r="AP50" s="28"/>
       <c r="AQ50" s="28"/>
     </row>
-    <row r="51" spans="1:43" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:43" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="35"/>
       <c r="B51" s="29"/>
       <c r="C51" s="24"/>
@@ -3880,7 +3857,7 @@
       <c r="AP51" s="28"/>
       <c r="AQ51" s="28"/>
     </row>
-    <row r="52" spans="1:43" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:43" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="35"/>
       <c r="B52" s="29"/>
       <c r="C52" s="24"/>
@@ -3934,7 +3911,7 @@
       <c r="AP52" s="28"/>
       <c r="AQ52" s="28"/>
     </row>
-    <row r="53" spans="1:43" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:43" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="35"/>
       <c r="B53" s="31"/>
       <c r="C53" s="24"/>
@@ -3988,7 +3965,7 @@
       <c r="AP53" s="28"/>
       <c r="AQ53" s="28"/>
     </row>
-    <row r="54" spans="1:43" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:43" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="35"/>
       <c r="B54" s="31"/>
       <c r="C54" s="24"/>
@@ -4042,7 +4019,7 @@
       <c r="AP54" s="28"/>
       <c r="AQ54" s="28"/>
     </row>
-    <row r="55" spans="1:43" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:43" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="35"/>
       <c r="B55" s="29"/>
       <c r="C55" s="24"/>
@@ -4096,7 +4073,7 @@
       <c r="AP55" s="28"/>
       <c r="AQ55" s="28"/>
     </row>
-    <row r="56" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="59" t="s">
         <v>44</v>
       </c>
@@ -4169,7 +4146,7 @@
       <c r="AP56" s="28"/>
       <c r="AQ56" s="28"/>
     </row>
-    <row r="57" spans="1:43" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:43" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="35"/>
       <c r="B57" s="29"/>
       <c r="C57" s="24"/>
@@ -4223,7 +4200,7 @@
       <c r="AP57" s="28"/>
       <c r="AQ57" s="28"/>
     </row>
-    <row r="58" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="35"/>
       <c r="B58" s="29"/>
       <c r="C58" s="24"/>
@@ -4277,7 +4254,7 @@
       <c r="AP58" s="28"/>
       <c r="AQ58" s="28"/>
     </row>
-    <row r="59" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="35"/>
       <c r="B59" s="29"/>
       <c r="C59" s="24"/>
@@ -4331,7 +4308,7 @@
       <c r="AP59" s="28"/>
       <c r="AQ59" s="28"/>
     </row>
-    <row r="60" spans="1:43" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:43" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="59" t="s">
         <v>45</v>
       </c>
@@ -4404,7 +4381,7 @@
       <c r="AP60" s="28"/>
       <c r="AQ60" s="28"/>
     </row>
-    <row r="61" spans="1:43" ht="34.5" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:43" ht="34.200000000000003" x14ac:dyDescent="0.25">
       <c r="A61" s="42" t="s">
         <v>37</v>
       </c>
@@ -4459,26 +4436,15 @@
       <c r="AP61" s="28"/>
       <c r="AQ61" s="28"/>
     </row>
-    <row r="62" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="58">
-        <v>26313</v>
-      </c>
-      <c r="B62" s="23" t="s">
-        <v>61</v>
-      </c>
-      <c r="C62" s="77">
-        <v>22</v>
-      </c>
+    <row r="62" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="58"/>
+      <c r="B62" s="23"/>
+      <c r="C62" s="62"/>
       <c r="D62" s="60"/>
       <c r="E62" s="61"/>
-      <c r="F62" s="77">
-        <v>8</v>
-      </c>
+      <c r="F62" s="62"/>
       <c r="G62" s="61"/>
-      <c r="H62" s="25">
-        <f t="shared" ref="H62:H67" si="21">(C62*2+F62)*0.15</f>
-        <v>7.8</v>
-      </c>
+      <c r="H62" s="25"/>
       <c r="I62" s="26">
         <v>1</v>
       </c>
@@ -4495,12 +4461,12 @@
       <c r="T62" s="24"/>
       <c r="U62" s="24"/>
       <c r="V62" s="25">
-        <f t="shared" ref="V62:V67" si="22">(I62*0.25)+(J62*0.15)+(K62*0.1)+(L62*0.1)+(M62*0.3)+(N62*4)+(O62*4)+(IF((P62*15)&gt;40,40,(P62*15)))+(IF((Q62*2)&gt;16,16,(Q62*2)))+(R62*120)+(S62*60)+(IF((T62*3)&gt;15,15,(T62*3))+(IF((U62*6)&gt;60,60,(U62*6))))</f>
+        <f t="shared" ref="V62:V67" si="21">(I62*0.25)+(J62*0.15)+(K62*0.1)+(L62*0.1)+(M62*0.3)+(N62*4)+(O62*4)+(IF((P62*15)&gt;40,40,(P62*15)))+(IF((Q62*2)&gt;16,16,(Q62*2)))+(R62*120)+(S62*60)+(IF((T62*3)&gt;15,15,(T62*3))+(IF((U62*6)&gt;60,60,(U62*6))))</f>
         <v>0.25</v>
       </c>
       <c r="W62" s="25">
-        <f t="shared" ref="W62:W67" si="23">SUM(H62+V62)</f>
-        <v>8.0500000000000007</v>
+        <f t="shared" ref="W62:W67" si="22">SUM(H62+V62)</f>
+        <v>0.25</v>
       </c>
       <c r="X62" s="28"/>
       <c r="Y62" s="28"/>
@@ -4523,16 +4489,16 @@
       <c r="AP62" s="28"/>
       <c r="AQ62" s="28"/>
     </row>
-    <row r="63" spans="1:43" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:43" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="35"/>
       <c r="B63" s="29"/>
-      <c r="C63" s="77"/>
+      <c r="C63" s="62"/>
       <c r="D63" s="60"/>
       <c r="E63" s="61"/>
-      <c r="F63" s="77"/>
+      <c r="F63" s="62"/>
       <c r="G63" s="61"/>
       <c r="H63" s="25">
-        <f t="shared" si="21"/>
+        <f t="shared" ref="H62:H67" si="23">(C63*2+F63)*0.15</f>
         <v>0</v>
       </c>
       <c r="I63" s="24"/>
@@ -4549,11 +4515,11 @@
       <c r="T63" s="24"/>
       <c r="U63" s="24"/>
       <c r="V63" s="25">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="W63" s="25">
         <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="W63" s="25">
-        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="X63" s="28"/>
@@ -4577,16 +4543,16 @@
       <c r="AP63" s="28"/>
       <c r="AQ63" s="28"/>
     </row>
-    <row r="64" spans="1:43" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:43" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="35"/>
       <c r="B64" s="29"/>
-      <c r="C64" s="77"/>
+      <c r="C64" s="62"/>
       <c r="D64" s="60"/>
       <c r="E64" s="61"/>
-      <c r="F64" s="77"/>
+      <c r="F64" s="62"/>
       <c r="G64" s="61"/>
       <c r="H64" s="25">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="I64" s="24"/>
@@ -4603,11 +4569,11 @@
       <c r="T64" s="24"/>
       <c r="U64" s="24"/>
       <c r="V64" s="25">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="W64" s="25">
         <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="W64" s="25">
-        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="X64" s="28"/>
@@ -4631,16 +4597,16 @@
       <c r="AP64" s="28"/>
       <c r="AQ64" s="28"/>
     </row>
-    <row r="65" spans="1:43" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:43" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="35"/>
       <c r="B65" s="29"/>
-      <c r="C65" s="77"/>
+      <c r="C65" s="62"/>
       <c r="D65" s="60"/>
       <c r="E65" s="61"/>
-      <c r="F65" s="77"/>
+      <c r="F65" s="62"/>
       <c r="G65" s="61"/>
       <c r="H65" s="25">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="I65" s="24"/>
@@ -4657,11 +4623,11 @@
       <c r="T65" s="24"/>
       <c r="U65" s="24"/>
       <c r="V65" s="25">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="W65" s="25">
         <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="W65" s="25">
-        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="X65" s="28"/>
@@ -4685,16 +4651,16 @@
       <c r="AP65" s="28"/>
       <c r="AQ65" s="28"/>
     </row>
-    <row r="66" spans="1:43" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:43" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="35"/>
       <c r="B66" s="29"/>
-      <c r="C66" s="77"/>
+      <c r="C66" s="62"/>
       <c r="D66" s="60"/>
       <c r="E66" s="61"/>
-      <c r="F66" s="77"/>
+      <c r="F66" s="62"/>
       <c r="G66" s="61"/>
       <c r="H66" s="25">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="I66" s="24"/>
@@ -4711,11 +4677,11 @@
       <c r="T66" s="24"/>
       <c r="U66" s="24"/>
       <c r="V66" s="25">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="W66" s="25">
         <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="W66" s="25">
-        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="X66" s="28"/>
@@ -4739,16 +4705,16 @@
       <c r="AP66" s="28"/>
       <c r="AQ66" s="28"/>
     </row>
-    <row r="67" spans="1:43" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:43" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="35"/>
       <c r="B67" s="29"/>
-      <c r="C67" s="77"/>
+      <c r="C67" s="62"/>
       <c r="D67" s="60"/>
       <c r="E67" s="61"/>
-      <c r="F67" s="77"/>
+      <c r="F67" s="62"/>
       <c r="G67" s="61"/>
       <c r="H67" s="25">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="I67" s="24"/>
@@ -4765,11 +4731,11 @@
       <c r="T67" s="24"/>
       <c r="U67" s="24"/>
       <c r="V67" s="25">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="W67" s="25">
         <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="W67" s="25">
-        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="X67" s="28"/>
@@ -4793,28 +4759,28 @@
       <c r="AP67" s="28"/>
       <c r="AQ67" s="28"/>
     </row>
-    <row r="68" spans="1:43" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="78" t="s">
+    <row r="68" spans="1:43" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="63" t="s">
         <v>46</v>
       </c>
       <c r="B68" s="60"/>
       <c r="C68" s="61"/>
       <c r="D68" s="19">
         <f>SUM(D13:D36)</f>
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="E68" s="19"/>
       <c r="F68" s="19">
         <f>SUM(F13:F36)</f>
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="G68" s="19">
         <f t="shared" ref="G68:M68" si="24">SUM(G13:G39)</f>
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="H68" s="19">
         <f t="shared" si="24"/>
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="I68" s="19">
         <f t="shared" si="24"/>
@@ -4850,7 +4816,7 @@
       </c>
       <c r="W68" s="19">
         <f>SUM(W13:W39)</f>
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="X68" s="28"/>
       <c r="Y68" s="28"/>
@@ -4873,8 +4839,8 @@
       <c r="AP68" s="28"/>
       <c r="AQ68" s="28"/>
     </row>
-    <row r="69" spans="1:43" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="79" t="s">
+    <row r="69" spans="1:43" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="64" t="s">
         <v>47</v>
       </c>
       <c r="B69" s="60"/>
@@ -4894,7 +4860,7 @@
       </c>
       <c r="H69" s="43">
         <f t="shared" ref="H69:M69" si="26">SUM(H41:H67)</f>
-        <v>7.8</v>
+        <v>0</v>
       </c>
       <c r="I69" s="43">
         <f t="shared" si="26"/>
@@ -4930,7 +4896,7 @@
       </c>
       <c r="W69" s="43">
         <f t="shared" si="27"/>
-        <v>8.0500000000000007</v>
+        <v>0.25</v>
       </c>
       <c r="X69" s="28"/>
       <c r="Y69" s="28"/>
@@ -4953,28 +4919,28 @@
       <c r="AP69" s="28"/>
       <c r="AQ69" s="28"/>
     </row>
-    <row r="70" spans="1:43" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="76" t="s">
+    <row r="70" spans="1:43" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="65" t="s">
         <v>48</v>
       </c>
       <c r="B70" s="60"/>
       <c r="C70" s="61"/>
       <c r="D70" s="22">
         <f>D68+D69</f>
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="E70" s="22"/>
       <c r="F70" s="22">
         <f t="shared" ref="F70:M70" si="28">F68+F69</f>
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="G70" s="22">
         <f t="shared" si="28"/>
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="H70" s="22">
         <f t="shared" si="28"/>
-        <v>57.8</v>
+        <v>0</v>
       </c>
       <c r="I70" s="22">
         <f t="shared" si="28"/>
@@ -5034,7 +5000,7 @@
       </c>
       <c r="W70" s="22">
         <f t="shared" si="30"/>
-        <v>58.05</v>
+        <v>0.25</v>
       </c>
       <c r="X70" s="28"/>
       <c r="Y70" s="28"/>
@@ -5057,7 +5023,7 @@
       <c r="AP70" s="28"/>
       <c r="AQ70" s="28"/>
     </row>
-    <row r="71" spans="1:43" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:43" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="1"/>
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
@@ -5106,7 +5072,7 @@
       <c r="AP71" s="1"/>
       <c r="AQ71" s="1"/>
     </row>
-    <row r="72" spans="1:43" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:43" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="1"/>
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
@@ -5155,7 +5121,7 @@
       <c r="AP72" s="1"/>
       <c r="AQ72" s="1"/>
     </row>
-    <row r="73" spans="1:43" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:43" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="1"/>
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
@@ -5204,7 +5170,7 @@
       <c r="AP73" s="1"/>
       <c r="AQ73" s="1"/>
     </row>
-    <row r="74" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="1"/>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
@@ -5253,7 +5219,7 @@
       <c r="AP74" s="1"/>
       <c r="AQ74" s="1"/>
     </row>
-    <row r="75" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="1"/>
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
@@ -5280,7 +5246,7 @@
       <c r="V75" s="4"/>
       <c r="W75" s="46">
         <f>IF((H70+W71+W72)&gt;=W8,(H70+W71+W72-W8)+V70+W73,0)</f>
-        <v>58.05</v>
+        <v>0.25</v>
       </c>
       <c r="X75" s="1"/>
       <c r="Y75" s="1"/>
@@ -5303,7 +5269,7 @@
       <c r="AP75" s="1"/>
       <c r="AQ75" s="1"/>
     </row>
-    <row r="76" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="1"/>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
@@ -5330,7 +5296,7 @@
       <c r="V76" s="4"/>
       <c r="W76" s="46">
         <f>IF((H68+W71)&lt;=840,W75-W74,(W75-(H68+W71-840)-W74))</f>
-        <v>58.05</v>
+        <v>0.25</v>
       </c>
       <c r="X76" s="1"/>
       <c r="Y76" s="1"/>
@@ -5353,7 +5319,7 @@
       <c r="AP76" s="1"/>
       <c r="AQ76" s="1"/>
     </row>
-    <row r="77" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
@@ -5398,7 +5364,7 @@
       <c r="AP77" s="1"/>
       <c r="AQ77" s="1"/>
     </row>
-    <row r="78" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
@@ -5443,7 +5409,7 @@
       <c r="AP78" s="1"/>
       <c r="AQ78" s="1"/>
     </row>
-    <row r="79" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
@@ -5488,7 +5454,7 @@
       <c r="AP79" s="1"/>
       <c r="AQ79" s="1"/>
     </row>
-    <row r="80" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>55</v>
       </c>
@@ -5535,7 +5501,7 @@
       <c r="AP80" s="1"/>
       <c r="AQ80" s="1"/>
     </row>
-    <row r="81" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="1"/>
       <c r="B81" s="1"/>
       <c r="C81" s="48" t="s">
@@ -5584,7 +5550,7 @@
       <c r="AP81" s="1"/>
       <c r="AQ81" s="1"/>
     </row>
-    <row r="82" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
@@ -5629,7 +5595,7 @@
       <c r="AP82" s="1"/>
       <c r="AQ82" s="1"/>
     </row>
-    <row r="83" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
@@ -5674,7 +5640,7 @@
       <c r="AP83" s="1"/>
       <c r="AQ83" s="1"/>
     </row>
-    <row r="84" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="49"/>
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
@@ -5721,7 +5687,7 @@
       <c r="AP84" s="1"/>
       <c r="AQ84" s="1"/>
     </row>
-    <row r="85" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="1"/>
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
@@ -5766,7 +5732,7 @@
       <c r="AP85" s="1"/>
       <c r="AQ85" s="1"/>
     </row>
-    <row r="86" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="1"/>
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
@@ -5811,7 +5777,7 @@
       <c r="AP86" s="1"/>
       <c r="AQ86" s="1"/>
     </row>
-    <row r="87" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="1"/>
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
@@ -5856,7 +5822,7 @@
       <c r="AP87" s="1"/>
       <c r="AQ87" s="1"/>
     </row>
-    <row r="88" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="1"/>
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
@@ -5901,7 +5867,7 @@
       <c r="AP88" s="1"/>
       <c r="AQ88" s="1"/>
     </row>
-    <row r="89" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="1"/>
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
@@ -5946,7 +5912,7 @@
       <c r="AP89" s="1"/>
       <c r="AQ89" s="1"/>
     </row>
-    <row r="90" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="1"/>
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
@@ -5991,7 +5957,7 @@
       <c r="AP90" s="1"/>
       <c r="AQ90" s="1"/>
     </row>
-    <row r="91" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="1"/>
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
@@ -6036,7 +6002,7 @@
       <c r="AP91" s="1"/>
       <c r="AQ91" s="1"/>
     </row>
-    <row r="92" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="1"/>
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
@@ -6081,7 +6047,7 @@
       <c r="AP92" s="1"/>
       <c r="AQ92" s="1"/>
     </row>
-    <row r="93" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="1"/>
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
@@ -6126,7 +6092,7 @@
       <c r="AP93" s="1"/>
       <c r="AQ93" s="1"/>
     </row>
-    <row r="94" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="1"/>
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
@@ -6171,7 +6137,7 @@
       <c r="AP94" s="1"/>
       <c r="AQ94" s="1"/>
     </row>
-    <row r="95" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="1"/>
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
@@ -6216,7 +6182,7 @@
       <c r="AP95" s="1"/>
       <c r="AQ95" s="1"/>
     </row>
-    <row r="96" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="1"/>
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
@@ -6261,7 +6227,7 @@
       <c r="AP96" s="1"/>
       <c r="AQ96" s="1"/>
     </row>
-    <row r="97" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="1"/>
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
@@ -6306,7 +6272,7 @@
       <c r="AP97" s="1"/>
       <c r="AQ97" s="1"/>
     </row>
-    <row r="98" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="1"/>
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
@@ -6351,7 +6317,7 @@
       <c r="AP98" s="1"/>
       <c r="AQ98" s="1"/>
     </row>
-    <row r="99" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="1"/>
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
@@ -6396,7 +6362,7 @@
       <c r="AP99" s="1"/>
       <c r="AQ99" s="1"/>
     </row>
-    <row r="100" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="1"/>
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
@@ -6441,7 +6407,7 @@
       <c r="AP100" s="1"/>
       <c r="AQ100" s="1"/>
     </row>
-    <row r="101" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="1"/>
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
@@ -6486,7 +6452,7 @@
       <c r="AP101" s="1"/>
       <c r="AQ101" s="1"/>
     </row>
-    <row r="102" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="1"/>
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
@@ -6531,7 +6497,7 @@
       <c r="AP102" s="1"/>
       <c r="AQ102" s="1"/>
     </row>
-    <row r="103" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="1"/>
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
@@ -6576,7 +6542,7 @@
       <c r="AP103" s="1"/>
       <c r="AQ103" s="1"/>
     </row>
-    <row r="104" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="1"/>
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
@@ -6621,7 +6587,7 @@
       <c r="AP104" s="1"/>
       <c r="AQ104" s="1"/>
     </row>
-    <row r="105" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="1"/>
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
@@ -6666,7 +6632,7 @@
       <c r="AP105" s="1"/>
       <c r="AQ105" s="1"/>
     </row>
-    <row r="106" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="1"/>
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
@@ -6711,7 +6677,7 @@
       <c r="AP106" s="1"/>
       <c r="AQ106" s="1"/>
     </row>
-    <row r="107" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="1"/>
       <c r="B107" s="1"/>
       <c r="C107" s="1"/>
@@ -6756,7 +6722,7 @@
       <c r="AP107" s="1"/>
       <c r="AQ107" s="1"/>
     </row>
-    <row r="108" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="1"/>
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
@@ -6801,7 +6767,7 @@
       <c r="AP108" s="1"/>
       <c r="AQ108" s="1"/>
     </row>
-    <row r="109" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="1"/>
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
@@ -6846,7 +6812,7 @@
       <c r="AP109" s="1"/>
       <c r="AQ109" s="1"/>
     </row>
-    <row r="110" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="1"/>
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
@@ -6891,7 +6857,7 @@
       <c r="AP110" s="1"/>
       <c r="AQ110" s="1"/>
     </row>
-    <row r="111" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="1"/>
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
@@ -6936,7 +6902,7 @@
       <c r="AP111" s="1"/>
       <c r="AQ111" s="1"/>
     </row>
-    <row r="112" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="1"/>
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
@@ -6981,7 +6947,7 @@
       <c r="AP112" s="1"/>
       <c r="AQ112" s="1"/>
     </row>
-    <row r="113" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="1"/>
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
@@ -7026,7 +6992,7 @@
       <c r="AP113" s="1"/>
       <c r="AQ113" s="1"/>
     </row>
-    <row r="114" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="1"/>
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
@@ -7071,7 +7037,7 @@
       <c r="AP114" s="1"/>
       <c r="AQ114" s="1"/>
     </row>
-    <row r="115" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="1"/>
       <c r="B115" s="1"/>
       <c r="C115" s="1"/>
@@ -7116,7 +7082,7 @@
       <c r="AP115" s="1"/>
       <c r="AQ115" s="1"/>
     </row>
-    <row r="116" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="1"/>
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
@@ -7161,7 +7127,7 @@
       <c r="AP116" s="1"/>
       <c r="AQ116" s="1"/>
     </row>
-    <row r="117" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="1"/>
       <c r="B117" s="1"/>
       <c r="C117" s="1"/>
@@ -7206,7 +7172,7 @@
       <c r="AP117" s="1"/>
       <c r="AQ117" s="1"/>
     </row>
-    <row r="118" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="1"/>
       <c r="B118" s="1"/>
       <c r="C118" s="1"/>
@@ -7251,7 +7217,7 @@
       <c r="AP118" s="1"/>
       <c r="AQ118" s="1"/>
     </row>
-    <row r="119" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="1"/>
       <c r="B119" s="1"/>
       <c r="C119" s="1"/>
@@ -7296,7 +7262,7 @@
       <c r="AP119" s="1"/>
       <c r="AQ119" s="1"/>
     </row>
-    <row r="120" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="1"/>
       <c r="B120" s="1"/>
       <c r="C120" s="1"/>
@@ -7341,7 +7307,7 @@
       <c r="AP120" s="1"/>
       <c r="AQ120" s="1"/>
     </row>
-    <row r="121" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="1"/>
       <c r="B121" s="1"/>
       <c r="C121" s="1"/>
@@ -7386,7 +7352,7 @@
       <c r="AP121" s="1"/>
       <c r="AQ121" s="1"/>
     </row>
-    <row r="122" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="1"/>
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
@@ -7431,7 +7397,7 @@
       <c r="AP122" s="1"/>
       <c r="AQ122" s="1"/>
     </row>
-    <row r="123" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="1"/>
       <c r="B123" s="1"/>
       <c r="C123" s="1"/>
@@ -7476,7 +7442,7 @@
       <c r="AP123" s="1"/>
       <c r="AQ123" s="1"/>
     </row>
-    <row r="124" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="1"/>
       <c r="B124" s="1"/>
       <c r="C124" s="1"/>
@@ -7521,7 +7487,7 @@
       <c r="AP124" s="1"/>
       <c r="AQ124" s="1"/>
     </row>
-    <row r="125" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="1"/>
       <c r="B125" s="1"/>
       <c r="C125" s="1"/>
@@ -7566,7 +7532,7 @@
       <c r="AP125" s="1"/>
       <c r="AQ125" s="1"/>
     </row>
-    <row r="126" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="1"/>
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>
@@ -7611,7 +7577,7 @@
       <c r="AP126" s="1"/>
       <c r="AQ126" s="1"/>
     </row>
-    <row r="127" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="1"/>
       <c r="B127" s="1"/>
       <c r="C127" s="1"/>
@@ -7656,7 +7622,7 @@
       <c r="AP127" s="1"/>
       <c r="AQ127" s="1"/>
     </row>
-    <row r="128" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="1"/>
       <c r="B128" s="1"/>
       <c r="C128" s="1"/>
@@ -7701,7 +7667,7 @@
       <c r="AP128" s="1"/>
       <c r="AQ128" s="1"/>
     </row>
-    <row r="129" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="1"/>
       <c r="B129" s="1"/>
       <c r="C129" s="1"/>
@@ -7746,7 +7712,7 @@
       <c r="AP129" s="1"/>
       <c r="AQ129" s="1"/>
     </row>
-    <row r="130" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="1"/>
       <c r="B130" s="1"/>
       <c r="C130" s="1"/>
@@ -7791,7 +7757,7 @@
       <c r="AP130" s="1"/>
       <c r="AQ130" s="1"/>
     </row>
-    <row r="131" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="1"/>
       <c r="B131" s="1"/>
       <c r="C131" s="1"/>
@@ -7836,7 +7802,7 @@
       <c r="AP131" s="1"/>
       <c r="AQ131" s="1"/>
     </row>
-    <row r="132" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="1"/>
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
@@ -7881,7 +7847,7 @@
       <c r="AP132" s="1"/>
       <c r="AQ132" s="1"/>
     </row>
-    <row r="133" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="1"/>
       <c r="B133" s="1"/>
       <c r="C133" s="1"/>
@@ -7926,7 +7892,7 @@
       <c r="AP133" s="1"/>
       <c r="AQ133" s="1"/>
     </row>
-    <row r="134" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="1"/>
       <c r="B134" s="1"/>
       <c r="C134" s="1"/>
@@ -7971,7 +7937,7 @@
       <c r="AP134" s="1"/>
       <c r="AQ134" s="1"/>
     </row>
-    <row r="135" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="1"/>
       <c r="B135" s="1"/>
       <c r="C135" s="1"/>
@@ -8016,7 +7982,7 @@
       <c r="AP135" s="1"/>
       <c r="AQ135" s="1"/>
     </row>
-    <row r="136" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="1"/>
       <c r="B136" s="1"/>
       <c r="C136" s="1"/>
@@ -8061,7 +8027,7 @@
       <c r="AP136" s="1"/>
       <c r="AQ136" s="1"/>
     </row>
-    <row r="137" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="1"/>
       <c r="B137" s="1"/>
       <c r="C137" s="1"/>
@@ -8106,7 +8072,7 @@
       <c r="AP137" s="1"/>
       <c r="AQ137" s="1"/>
     </row>
-    <row r="138" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="1"/>
       <c r="B138" s="1"/>
       <c r="C138" s="1"/>
@@ -8151,7 +8117,7 @@
       <c r="AP138" s="1"/>
       <c r="AQ138" s="1"/>
     </row>
-    <row r="139" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="1"/>
       <c r="B139" s="1"/>
       <c r="C139" s="1"/>
@@ -8196,7 +8162,7 @@
       <c r="AP139" s="1"/>
       <c r="AQ139" s="1"/>
     </row>
-    <row r="140" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="1"/>
       <c r="B140" s="1"/>
       <c r="C140" s="1"/>
@@ -8241,7 +8207,7 @@
       <c r="AP140" s="1"/>
       <c r="AQ140" s="1"/>
     </row>
-    <row r="141" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="1"/>
       <c r="B141" s="1"/>
       <c r="C141" s="1"/>
@@ -8286,7 +8252,7 @@
       <c r="AP141" s="1"/>
       <c r="AQ141" s="1"/>
     </row>
-    <row r="142" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="1"/>
       <c r="B142" s="1"/>
       <c r="C142" s="1"/>
@@ -8331,7 +8297,7 @@
       <c r="AP142" s="1"/>
       <c r="AQ142" s="1"/>
     </row>
-    <row r="143" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="1"/>
       <c r="B143" s="1"/>
       <c r="C143" s="1"/>
@@ -8376,7 +8342,7 @@
       <c r="AP143" s="1"/>
       <c r="AQ143" s="1"/>
     </row>
-    <row r="144" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="1"/>
       <c r="B144" s="1"/>
       <c r="C144" s="1"/>
@@ -8421,7 +8387,7 @@
       <c r="AP144" s="1"/>
       <c r="AQ144" s="1"/>
     </row>
-    <row r="145" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="1"/>
       <c r="B145" s="1"/>
       <c r="C145" s="1"/>
@@ -8466,7 +8432,7 @@
       <c r="AP145" s="1"/>
       <c r="AQ145" s="1"/>
     </row>
-    <row r="146" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="1"/>
       <c r="B146" s="1"/>
       <c r="C146" s="1"/>
@@ -8511,7 +8477,7 @@
       <c r="AP146" s="1"/>
       <c r="AQ146" s="1"/>
     </row>
-    <row r="147" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="1"/>
       <c r="B147" s="1"/>
       <c r="C147" s="1"/>
@@ -8556,7 +8522,7 @@
       <c r="AP147" s="1"/>
       <c r="AQ147" s="1"/>
     </row>
-    <row r="148" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="1"/>
       <c r="B148" s="1"/>
       <c r="C148" s="1"/>
@@ -8601,7 +8567,7 @@
       <c r="AP148" s="1"/>
       <c r="AQ148" s="1"/>
     </row>
-    <row r="149" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="1"/>
       <c r="B149" s="1"/>
       <c r="C149" s="1"/>
@@ -8646,7 +8612,7 @@
       <c r="AP149" s="1"/>
       <c r="AQ149" s="1"/>
     </row>
-    <row r="150" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="1"/>
       <c r="B150" s="1"/>
       <c r="C150" s="1"/>
@@ -8691,7 +8657,7 @@
       <c r="AP150" s="1"/>
       <c r="AQ150" s="1"/>
     </row>
-    <row r="151" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="1"/>
       <c r="B151" s="1"/>
       <c r="C151" s="1"/>
@@ -8736,7 +8702,7 @@
       <c r="AP151" s="1"/>
       <c r="AQ151" s="1"/>
     </row>
-    <row r="152" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="1"/>
       <c r="B152" s="1"/>
       <c r="C152" s="1"/>
@@ -8781,7 +8747,7 @@
       <c r="AP152" s="1"/>
       <c r="AQ152" s="1"/>
     </row>
-    <row r="153" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="1"/>
       <c r="B153" s="1"/>
       <c r="C153" s="1"/>
@@ -8826,7 +8792,7 @@
       <c r="AP153" s="1"/>
       <c r="AQ153" s="1"/>
     </row>
-    <row r="154" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="1"/>
       <c r="B154" s="1"/>
       <c r="C154" s="1"/>
@@ -8871,7 +8837,7 @@
       <c r="AP154" s="1"/>
       <c r="AQ154" s="1"/>
     </row>
-    <row r="155" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="1"/>
       <c r="B155" s="1"/>
       <c r="C155" s="1"/>
@@ -8916,7 +8882,7 @@
       <c r="AP155" s="1"/>
       <c r="AQ155" s="1"/>
     </row>
-    <row r="156" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="1"/>
       <c r="B156" s="1"/>
       <c r="C156" s="1"/>
@@ -8961,7 +8927,7 @@
       <c r="AP156" s="1"/>
       <c r="AQ156" s="1"/>
     </row>
-    <row r="157" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="1"/>
       <c r="B157" s="1"/>
       <c r="C157" s="1"/>
@@ -9006,7 +8972,7 @@
       <c r="AP157" s="1"/>
       <c r="AQ157" s="1"/>
     </row>
-    <row r="158" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="1"/>
       <c r="B158" s="1"/>
       <c r="C158" s="1"/>
@@ -9051,7 +9017,7 @@
       <c r="AP158" s="1"/>
       <c r="AQ158" s="1"/>
     </row>
-    <row r="159" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="1"/>
       <c r="B159" s="1"/>
       <c r="C159" s="1"/>
@@ -9096,7 +9062,7 @@
       <c r="AP159" s="1"/>
       <c r="AQ159" s="1"/>
     </row>
-    <row r="160" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="1"/>
       <c r="B160" s="1"/>
       <c r="C160" s="1"/>
@@ -9141,7 +9107,7 @@
       <c r="AP160" s="1"/>
       <c r="AQ160" s="1"/>
     </row>
-    <row r="161" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="1"/>
       <c r="B161" s="1"/>
       <c r="C161" s="1"/>
@@ -9186,7 +9152,7 @@
       <c r="AP161" s="1"/>
       <c r="AQ161" s="1"/>
     </row>
-    <row r="162" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="1"/>
       <c r="B162" s="1"/>
       <c r="C162" s="1"/>
@@ -9231,7 +9197,7 @@
       <c r="AP162" s="1"/>
       <c r="AQ162" s="1"/>
     </row>
-    <row r="163" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="1"/>
       <c r="B163" s="1"/>
       <c r="C163" s="1"/>
@@ -9276,7 +9242,7 @@
       <c r="AP163" s="1"/>
       <c r="AQ163" s="1"/>
     </row>
-    <row r="164" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="1"/>
       <c r="B164" s="1"/>
       <c r="C164" s="1"/>
@@ -9321,7 +9287,7 @@
       <c r="AP164" s="1"/>
       <c r="AQ164" s="1"/>
     </row>
-    <row r="165" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="1"/>
       <c r="B165" s="1"/>
       <c r="C165" s="1"/>
@@ -9366,7 +9332,7 @@
       <c r="AP165" s="1"/>
       <c r="AQ165" s="1"/>
     </row>
-    <row r="166" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="1"/>
       <c r="B166" s="1"/>
       <c r="C166" s="1"/>
@@ -9411,7 +9377,7 @@
       <c r="AP166" s="1"/>
       <c r="AQ166" s="1"/>
     </row>
-    <row r="167" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="1"/>
       <c r="B167" s="1"/>
       <c r="C167" s="1"/>
@@ -9456,7 +9422,7 @@
       <c r="AP167" s="1"/>
       <c r="AQ167" s="1"/>
     </row>
-    <row r="168" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="1"/>
       <c r="B168" s="1"/>
       <c r="C168" s="1"/>
@@ -9501,7 +9467,7 @@
       <c r="AP168" s="1"/>
       <c r="AQ168" s="1"/>
     </row>
-    <row r="169" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="1"/>
       <c r="B169" s="1"/>
       <c r="C169" s="1"/>
@@ -9546,7 +9512,7 @@
       <c r="AP169" s="1"/>
       <c r="AQ169" s="1"/>
     </row>
-    <row r="170" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="1"/>
       <c r="B170" s="1"/>
       <c r="C170" s="1"/>
@@ -9591,7 +9557,7 @@
       <c r="AP170" s="1"/>
       <c r="AQ170" s="1"/>
     </row>
-    <row r="171" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="1"/>
       <c r="B171" s="1"/>
       <c r="C171" s="1"/>
@@ -9636,7 +9602,7 @@
       <c r="AP171" s="1"/>
       <c r="AQ171" s="1"/>
     </row>
-    <row r="172" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="1"/>
       <c r="B172" s="1"/>
       <c r="C172" s="1"/>
@@ -9681,7 +9647,7 @@
       <c r="AP172" s="1"/>
       <c r="AQ172" s="1"/>
     </row>
-    <row r="173" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="1"/>
       <c r="B173" s="1"/>
       <c r="C173" s="1"/>
@@ -9726,7 +9692,7 @@
       <c r="AP173" s="1"/>
       <c r="AQ173" s="1"/>
     </row>
-    <row r="174" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="1"/>
       <c r="B174" s="1"/>
       <c r="C174" s="1"/>
@@ -9771,7 +9737,7 @@
       <c r="AP174" s="1"/>
       <c r="AQ174" s="1"/>
     </row>
-    <row r="175" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="1"/>
       <c r="B175" s="1"/>
       <c r="C175" s="1"/>
@@ -9816,7 +9782,7 @@
       <c r="AP175" s="1"/>
       <c r="AQ175" s="1"/>
     </row>
-    <row r="176" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="1"/>
       <c r="B176" s="1"/>
       <c r="C176" s="1"/>
@@ -9861,7 +9827,7 @@
       <c r="AP176" s="1"/>
       <c r="AQ176" s="1"/>
     </row>
-    <row r="177" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="1"/>
       <c r="B177" s="1"/>
       <c r="C177" s="1"/>
@@ -9906,7 +9872,7 @@
       <c r="AP177" s="1"/>
       <c r="AQ177" s="1"/>
     </row>
-    <row r="178" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="1"/>
       <c r="B178" s="1"/>
       <c r="C178" s="1"/>
@@ -9951,7 +9917,7 @@
       <c r="AP178" s="1"/>
       <c r="AQ178" s="1"/>
     </row>
-    <row r="179" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="1"/>
       <c r="B179" s="1"/>
       <c r="C179" s="1"/>
@@ -9996,7 +9962,7 @@
       <c r="AP179" s="1"/>
       <c r="AQ179" s="1"/>
     </row>
-    <row r="180" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="1"/>
       <c r="B180" s="1"/>
       <c r="C180" s="1"/>
@@ -10041,7 +10007,7 @@
       <c r="AP180" s="1"/>
       <c r="AQ180" s="1"/>
     </row>
-    <row r="181" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="1"/>
       <c r="B181" s="1"/>
       <c r="C181" s="1"/>
@@ -10086,7 +10052,7 @@
       <c r="AP181" s="1"/>
       <c r="AQ181" s="1"/>
     </row>
-    <row r="182" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="1"/>
       <c r="B182" s="1"/>
       <c r="C182" s="1"/>
@@ -10131,7 +10097,7 @@
       <c r="AP182" s="1"/>
       <c r="AQ182" s="1"/>
     </row>
-    <row r="183" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="1"/>
       <c r="B183" s="1"/>
       <c r="C183" s="1"/>
@@ -10176,7 +10142,7 @@
       <c r="AP183" s="1"/>
       <c r="AQ183" s="1"/>
     </row>
-    <row r="184" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" s="1"/>
       <c r="B184" s="1"/>
       <c r="C184" s="1"/>
@@ -10221,7 +10187,7 @@
       <c r="AP184" s="1"/>
       <c r="AQ184" s="1"/>
     </row>
-    <row r="185" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" s="1"/>
       <c r="B185" s="1"/>
       <c r="C185" s="1"/>
@@ -10266,7 +10232,7 @@
       <c r="AP185" s="1"/>
       <c r="AQ185" s="1"/>
     </row>
-    <row r="186" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" s="1"/>
       <c r="B186" s="1"/>
       <c r="C186" s="1"/>
@@ -10311,7 +10277,7 @@
       <c r="AP186" s="1"/>
       <c r="AQ186" s="1"/>
     </row>
-    <row r="187" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" s="1"/>
       <c r="B187" s="1"/>
       <c r="C187" s="1"/>
@@ -10356,7 +10322,7 @@
       <c r="AP187" s="1"/>
       <c r="AQ187" s="1"/>
     </row>
-    <row r="188" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" s="1"/>
       <c r="B188" s="1"/>
       <c r="C188" s="1"/>
@@ -10401,7 +10367,7 @@
       <c r="AP188" s="1"/>
       <c r="AQ188" s="1"/>
     </row>
-    <row r="189" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189" s="1"/>
       <c r="B189" s="1"/>
       <c r="C189" s="1"/>
@@ -10446,7 +10412,7 @@
       <c r="AP189" s="1"/>
       <c r="AQ189" s="1"/>
     </row>
-    <row r="190" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" s="1"/>
       <c r="B190" s="1"/>
       <c r="C190" s="1"/>
@@ -10491,7 +10457,7 @@
       <c r="AP190" s="1"/>
       <c r="AQ190" s="1"/>
     </row>
-    <row r="191" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" s="1"/>
       <c r="B191" s="1"/>
       <c r="C191" s="1"/>
@@ -10536,7 +10502,7 @@
       <c r="AP191" s="1"/>
       <c r="AQ191" s="1"/>
     </row>
-    <row r="192" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" s="1"/>
       <c r="B192" s="1"/>
       <c r="C192" s="1"/>
@@ -10581,7 +10547,7 @@
       <c r="AP192" s="1"/>
       <c r="AQ192" s="1"/>
     </row>
-    <row r="193" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" s="1"/>
       <c r="B193" s="1"/>
       <c r="C193" s="1"/>
@@ -10626,7 +10592,7 @@
       <c r="AP193" s="1"/>
       <c r="AQ193" s="1"/>
     </row>
-    <row r="194" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" s="1"/>
       <c r="B194" s="1"/>
       <c r="C194" s="1"/>
@@ -10671,7 +10637,7 @@
       <c r="AP194" s="1"/>
       <c r="AQ194" s="1"/>
     </row>
-    <row r="195" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" s="1"/>
       <c r="B195" s="1"/>
       <c r="C195" s="1"/>
@@ -10716,7 +10682,7 @@
       <c r="AP195" s="1"/>
       <c r="AQ195" s="1"/>
     </row>
-    <row r="196" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196" s="1"/>
       <c r="B196" s="1"/>
       <c r="C196" s="1"/>
@@ -10761,7 +10727,7 @@
       <c r="AP196" s="1"/>
       <c r="AQ196" s="1"/>
     </row>
-    <row r="197" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197" s="1"/>
       <c r="B197" s="1"/>
       <c r="C197" s="1"/>
@@ -10806,7 +10772,7 @@
       <c r="AP197" s="1"/>
       <c r="AQ197" s="1"/>
     </row>
-    <row r="198" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A198" s="1"/>
       <c r="B198" s="1"/>
       <c r="C198" s="1"/>
@@ -10851,7 +10817,7 @@
       <c r="AP198" s="1"/>
       <c r="AQ198" s="1"/>
     </row>
-    <row r="199" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A199" s="1"/>
       <c r="B199" s="1"/>
       <c r="C199" s="1"/>
@@ -10896,7 +10862,7 @@
       <c r="AP199" s="1"/>
       <c r="AQ199" s="1"/>
     </row>
-    <row r="200" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A200" s="1"/>
       <c r="B200" s="1"/>
       <c r="C200" s="1"/>
@@ -10941,7 +10907,7 @@
       <c r="AP200" s="1"/>
       <c r="AQ200" s="1"/>
     </row>
-    <row r="201" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A201" s="1"/>
       <c r="B201" s="1"/>
       <c r="C201" s="1"/>
@@ -10986,7 +10952,7 @@
       <c r="AP201" s="1"/>
       <c r="AQ201" s="1"/>
     </row>
-    <row r="202" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A202" s="1"/>
       <c r="B202" s="1"/>
       <c r="C202" s="1"/>
@@ -11031,7 +10997,7 @@
       <c r="AP202" s="1"/>
       <c r="AQ202" s="1"/>
     </row>
-    <row r="203" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A203" s="1"/>
       <c r="B203" s="1"/>
       <c r="C203" s="1"/>
@@ -11076,7 +11042,7 @@
       <c r="AP203" s="1"/>
       <c r="AQ203" s="1"/>
     </row>
-    <row r="204" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A204" s="1"/>
       <c r="B204" s="1"/>
       <c r="C204" s="1"/>
@@ -11121,7 +11087,7 @@
       <c r="AP204" s="1"/>
       <c r="AQ204" s="1"/>
     </row>
-    <row r="205" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A205" s="1"/>
       <c r="B205" s="1"/>
       <c r="C205" s="1"/>
@@ -11166,7 +11132,7 @@
       <c r="AP205" s="1"/>
       <c r="AQ205" s="1"/>
     </row>
-    <row r="206" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A206" s="1"/>
       <c r="B206" s="1"/>
       <c r="C206" s="1"/>
@@ -11211,7 +11177,7 @@
       <c r="AP206" s="1"/>
       <c r="AQ206" s="1"/>
     </row>
-    <row r="207" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A207" s="1"/>
       <c r="B207" s="1"/>
       <c r="C207" s="1"/>
@@ -11256,7 +11222,7 @@
       <c r="AP207" s="1"/>
       <c r="AQ207" s="1"/>
     </row>
-    <row r="208" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A208" s="1"/>
       <c r="B208" s="1"/>
       <c r="C208" s="1"/>
@@ -11301,7 +11267,7 @@
       <c r="AP208" s="1"/>
       <c r="AQ208" s="1"/>
     </row>
-    <row r="209" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A209" s="1"/>
       <c r="B209" s="1"/>
       <c r="C209" s="1"/>
@@ -11346,7 +11312,7 @@
       <c r="AP209" s="1"/>
       <c r="AQ209" s="1"/>
     </row>
-    <row r="210" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A210" s="1"/>
       <c r="B210" s="1"/>
       <c r="C210" s="1"/>
@@ -11391,7 +11357,7 @@
       <c r="AP210" s="1"/>
       <c r="AQ210" s="1"/>
     </row>
-    <row r="211" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A211" s="1"/>
       <c r="B211" s="1"/>
       <c r="C211" s="1"/>
@@ -11436,7 +11402,7 @@
       <c r="AP211" s="1"/>
       <c r="AQ211" s="1"/>
     </row>
-    <row r="212" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A212" s="1"/>
       <c r="B212" s="1"/>
       <c r="C212" s="1"/>
@@ -11481,7 +11447,7 @@
       <c r="AP212" s="1"/>
       <c r="AQ212" s="1"/>
     </row>
-    <row r="213" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A213" s="1"/>
       <c r="B213" s="1"/>
       <c r="C213" s="1"/>
@@ -11526,7 +11492,7 @@
       <c r="AP213" s="1"/>
       <c r="AQ213" s="1"/>
     </row>
-    <row r="214" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A214" s="1"/>
       <c r="B214" s="1"/>
       <c r="C214" s="1"/>
@@ -11571,7 +11537,7 @@
       <c r="AP214" s="1"/>
       <c r="AQ214" s="1"/>
     </row>
-    <row r="215" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A215" s="1"/>
       <c r="B215" s="1"/>
       <c r="C215" s="1"/>
@@ -11616,7 +11582,7 @@
       <c r="AP215" s="1"/>
       <c r="AQ215" s="1"/>
     </row>
-    <row r="216" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A216" s="1"/>
       <c r="B216" s="1"/>
       <c r="C216" s="1"/>
@@ -11661,7 +11627,7 @@
       <c r="AP216" s="1"/>
       <c r="AQ216" s="1"/>
     </row>
-    <row r="217" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A217" s="1"/>
       <c r="B217" s="1"/>
       <c r="C217" s="1"/>
@@ -11706,7 +11672,7 @@
       <c r="AP217" s="1"/>
       <c r="AQ217" s="1"/>
     </row>
-    <row r="218" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A218" s="1"/>
       <c r="B218" s="1"/>
       <c r="C218" s="1"/>
@@ -11751,7 +11717,7 @@
       <c r="AP218" s="1"/>
       <c r="AQ218" s="1"/>
     </row>
-    <row r="219" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A219" s="1"/>
       <c r="B219" s="1"/>
       <c r="C219" s="1"/>
@@ -11796,7 +11762,7 @@
       <c r="AP219" s="1"/>
       <c r="AQ219" s="1"/>
     </row>
-    <row r="220" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A220" s="1"/>
       <c r="B220" s="1"/>
       <c r="C220" s="1"/>
@@ -11841,7 +11807,7 @@
       <c r="AP220" s="1"/>
       <c r="AQ220" s="1"/>
     </row>
-    <row r="221" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A221" s="1"/>
       <c r="B221" s="1"/>
       <c r="C221" s="1"/>
@@ -11886,7 +11852,7 @@
       <c r="AP221" s="1"/>
       <c r="AQ221" s="1"/>
     </row>
-    <row r="222" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A222" s="1"/>
       <c r="B222" s="1"/>
       <c r="C222" s="1"/>
@@ -11931,7 +11897,7 @@
       <c r="AP222" s="1"/>
       <c r="AQ222" s="1"/>
     </row>
-    <row r="223" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A223" s="1"/>
       <c r="B223" s="1"/>
       <c r="C223" s="1"/>
@@ -11976,7 +11942,7 @@
       <c r="AP223" s="1"/>
       <c r="AQ223" s="1"/>
     </row>
-    <row r="224" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A224" s="1"/>
       <c r="B224" s="1"/>
       <c r="C224" s="1"/>
@@ -12021,7 +11987,7 @@
       <c r="AP224" s="1"/>
       <c r="AQ224" s="1"/>
     </row>
-    <row r="225" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A225" s="1"/>
       <c r="B225" s="1"/>
       <c r="C225" s="1"/>
@@ -12066,7 +12032,7 @@
       <c r="AP225" s="1"/>
       <c r="AQ225" s="1"/>
     </row>
-    <row r="226" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A226" s="1"/>
       <c r="B226" s="1"/>
       <c r="C226" s="1"/>
@@ -12111,7 +12077,7 @@
       <c r="AP226" s="1"/>
       <c r="AQ226" s="1"/>
     </row>
-    <row r="227" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A227" s="1"/>
       <c r="B227" s="1"/>
       <c r="C227" s="1"/>
@@ -12156,7 +12122,7 @@
       <c r="AP227" s="1"/>
       <c r="AQ227" s="1"/>
     </row>
-    <row r="228" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A228" s="1"/>
       <c r="B228" s="1"/>
       <c r="C228" s="1"/>
@@ -12201,7 +12167,7 @@
       <c r="AP228" s="1"/>
       <c r="AQ228" s="1"/>
     </row>
-    <row r="229" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A229" s="1"/>
       <c r="B229" s="1"/>
       <c r="C229" s="1"/>
@@ -12246,7 +12212,7 @@
       <c r="AP229" s="1"/>
       <c r="AQ229" s="1"/>
     </row>
-    <row r="230" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A230" s="1"/>
       <c r="B230" s="1"/>
       <c r="C230" s="1"/>
@@ -12291,7 +12257,7 @@
       <c r="AP230" s="1"/>
       <c r="AQ230" s="1"/>
     </row>
-    <row r="231" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A231" s="1"/>
       <c r="B231" s="1"/>
       <c r="C231" s="1"/>
@@ -12336,7 +12302,7 @@
       <c r="AP231" s="1"/>
       <c r="AQ231" s="1"/>
     </row>
-    <row r="232" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A232" s="1"/>
       <c r="B232" s="1"/>
       <c r="C232" s="1"/>
@@ -12381,7 +12347,7 @@
       <c r="AP232" s="1"/>
       <c r="AQ232" s="1"/>
     </row>
-    <row r="233" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A233" s="1"/>
       <c r="B233" s="1"/>
       <c r="C233" s="1"/>
@@ -12426,7 +12392,7 @@
       <c r="AP233" s="1"/>
       <c r="AQ233" s="1"/>
     </row>
-    <row r="234" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A234" s="1"/>
       <c r="B234" s="1"/>
       <c r="C234" s="1"/>
@@ -12471,7 +12437,7 @@
       <c r="AP234" s="1"/>
       <c r="AQ234" s="1"/>
     </row>
-    <row r="235" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A235" s="1"/>
       <c r="B235" s="1"/>
       <c r="C235" s="1"/>
@@ -12516,7 +12482,7 @@
       <c r="AP235" s="1"/>
       <c r="AQ235" s="1"/>
     </row>
-    <row r="236" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A236" s="1"/>
       <c r="B236" s="1"/>
       <c r="C236" s="1"/>
@@ -12561,7 +12527,7 @@
       <c r="AP236" s="1"/>
       <c r="AQ236" s="1"/>
     </row>
-    <row r="237" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A237" s="1"/>
       <c r="B237" s="1"/>
       <c r="C237" s="1"/>
@@ -12606,7 +12572,7 @@
       <c r="AP237" s="1"/>
       <c r="AQ237" s="1"/>
     </row>
-    <row r="238" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A238" s="1"/>
       <c r="B238" s="1"/>
       <c r="C238" s="1"/>
@@ -12651,7 +12617,7 @@
       <c r="AP238" s="1"/>
       <c r="AQ238" s="1"/>
     </row>
-    <row r="239" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A239" s="1"/>
       <c r="B239" s="1"/>
       <c r="C239" s="1"/>
@@ -12696,7 +12662,7 @@
       <c r="AP239" s="1"/>
       <c r="AQ239" s="1"/>
     </row>
-    <row r="240" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A240" s="1"/>
       <c r="B240" s="1"/>
       <c r="C240" s="1"/>
@@ -12741,7 +12707,7 @@
       <c r="AP240" s="1"/>
       <c r="AQ240" s="1"/>
     </row>
-    <row r="241" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A241" s="1"/>
       <c r="B241" s="1"/>
       <c r="C241" s="1"/>
@@ -12786,7 +12752,7 @@
       <c r="AP241" s="1"/>
       <c r="AQ241" s="1"/>
     </row>
-    <row r="242" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A242" s="1"/>
       <c r="B242" s="1"/>
       <c r="C242" s="1"/>
@@ -12831,7 +12797,7 @@
       <c r="AP242" s="1"/>
       <c r="AQ242" s="1"/>
     </row>
-    <row r="243" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A243" s="1"/>
       <c r="B243" s="1"/>
       <c r="C243" s="1"/>
@@ -12876,7 +12842,7 @@
       <c r="AP243" s="1"/>
       <c r="AQ243" s="1"/>
     </row>
-    <row r="244" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A244" s="1"/>
       <c r="B244" s="1"/>
       <c r="C244" s="1"/>
@@ -12921,7 +12887,7 @@
       <c r="AP244" s="1"/>
       <c r="AQ244" s="1"/>
     </row>
-    <row r="245" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A245" s="1"/>
       <c r="B245" s="1"/>
       <c r="C245" s="1"/>
@@ -12966,7 +12932,7 @@
       <c r="AP245" s="1"/>
       <c r="AQ245" s="1"/>
     </row>
-    <row r="246" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A246" s="1"/>
       <c r="B246" s="1"/>
       <c r="C246" s="1"/>
@@ -13011,7 +12977,7 @@
       <c r="AP246" s="1"/>
       <c r="AQ246" s="1"/>
     </row>
-    <row r="247" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A247" s="1"/>
       <c r="B247" s="1"/>
       <c r="C247" s="1"/>
@@ -13056,7 +13022,7 @@
       <c r="AP247" s="1"/>
       <c r="AQ247" s="1"/>
     </row>
-    <row r="248" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A248" s="1"/>
       <c r="B248" s="1"/>
       <c r="C248" s="1"/>
@@ -13101,7 +13067,7 @@
       <c r="AP248" s="1"/>
       <c r="AQ248" s="1"/>
     </row>
-    <row r="249" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A249" s="1"/>
       <c r="B249" s="1"/>
       <c r="C249" s="1"/>
@@ -13146,7 +13112,7 @@
       <c r="AP249" s="1"/>
       <c r="AQ249" s="1"/>
     </row>
-    <row r="250" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A250" s="1"/>
       <c r="B250" s="1"/>
       <c r="C250" s="1"/>
@@ -13191,7 +13157,7 @@
       <c r="AP250" s="1"/>
       <c r="AQ250" s="1"/>
     </row>
-    <row r="251" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A251" s="1"/>
       <c r="B251" s="1"/>
       <c r="C251" s="1"/>
@@ -13236,7 +13202,7 @@
       <c r="AP251" s="1"/>
       <c r="AQ251" s="1"/>
     </row>
-    <row r="252" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A252" s="1"/>
       <c r="B252" s="1"/>
       <c r="C252" s="1"/>
@@ -13281,7 +13247,7 @@
       <c r="AP252" s="1"/>
       <c r="AQ252" s="1"/>
     </row>
-    <row r="253" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A253" s="1"/>
       <c r="B253" s="1"/>
       <c r="C253" s="1"/>
@@ -13326,7 +13292,7 @@
       <c r="AP253" s="1"/>
       <c r="AQ253" s="1"/>
     </row>
-    <row r="254" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A254" s="1"/>
       <c r="B254" s="1"/>
       <c r="C254" s="1"/>
@@ -13371,7 +13337,7 @@
       <c r="AP254" s="1"/>
       <c r="AQ254" s="1"/>
     </row>
-    <row r="255" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A255" s="1"/>
       <c r="B255" s="1"/>
       <c r="C255" s="1"/>
@@ -13416,7 +13382,7 @@
       <c r="AP255" s="1"/>
       <c r="AQ255" s="1"/>
     </row>
-    <row r="256" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A256" s="1"/>
       <c r="B256" s="1"/>
       <c r="C256" s="1"/>
@@ -13461,7 +13427,7 @@
       <c r="AP256" s="1"/>
       <c r="AQ256" s="1"/>
     </row>
-    <row r="257" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A257" s="1"/>
       <c r="B257" s="1"/>
       <c r="C257" s="1"/>
@@ -13506,7 +13472,7 @@
       <c r="AP257" s="1"/>
       <c r="AQ257" s="1"/>
     </row>
-    <row r="258" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A258" s="1"/>
       <c r="B258" s="1"/>
       <c r="C258" s="1"/>
@@ -13551,7 +13517,7 @@
       <c r="AP258" s="1"/>
       <c r="AQ258" s="1"/>
     </row>
-    <row r="259" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A259" s="1"/>
       <c r="B259" s="1"/>
       <c r="C259" s="1"/>
@@ -13596,7 +13562,7 @@
       <c r="AP259" s="1"/>
       <c r="AQ259" s="1"/>
     </row>
-    <row r="260" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A260" s="1"/>
       <c r="B260" s="1"/>
       <c r="C260" s="1"/>
@@ -13641,7 +13607,7 @@
       <c r="AP260" s="1"/>
       <c r="AQ260" s="1"/>
     </row>
-    <row r="261" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A261" s="1"/>
       <c r="B261" s="1"/>
       <c r="C261" s="1"/>
@@ -13686,7 +13652,7 @@
       <c r="AP261" s="1"/>
       <c r="AQ261" s="1"/>
     </row>
-    <row r="262" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A262" s="1"/>
       <c r="B262" s="1"/>
       <c r="C262" s="1"/>
@@ -13731,7 +13697,7 @@
       <c r="AP262" s="1"/>
       <c r="AQ262" s="1"/>
     </row>
-    <row r="263" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A263" s="1"/>
       <c r="B263" s="1"/>
       <c r="C263" s="1"/>
@@ -13776,7 +13742,7 @@
       <c r="AP263" s="1"/>
       <c r="AQ263" s="1"/>
     </row>
-    <row r="264" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A264" s="1"/>
       <c r="B264" s="1"/>
       <c r="C264" s="1"/>
@@ -13821,7 +13787,7 @@
       <c r="AP264" s="1"/>
       <c r="AQ264" s="1"/>
     </row>
-    <row r="265" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A265" s="1"/>
       <c r="B265" s="1"/>
       <c r="C265" s="1"/>
@@ -13866,7 +13832,7 @@
       <c r="AP265" s="1"/>
       <c r="AQ265" s="1"/>
     </row>
-    <row r="266" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A266" s="1"/>
       <c r="B266" s="1"/>
       <c r="C266" s="1"/>
@@ -13911,7 +13877,7 @@
       <c r="AP266" s="1"/>
       <c r="AQ266" s="1"/>
     </row>
-    <row r="267" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A267" s="1"/>
       <c r="B267" s="1"/>
       <c r="C267" s="1"/>
@@ -13956,7 +13922,7 @@
       <c r="AP267" s="1"/>
       <c r="AQ267" s="1"/>
     </row>
-    <row r="268" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A268" s="1"/>
       <c r="B268" s="1"/>
       <c r="C268" s="1"/>
@@ -14001,7 +13967,7 @@
       <c r="AP268" s="1"/>
       <c r="AQ268" s="1"/>
     </row>
-    <row r="269" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A269" s="1"/>
       <c r="B269" s="1"/>
       <c r="C269" s="1"/>
@@ -14046,7 +14012,7 @@
       <c r="AP269" s="1"/>
       <c r="AQ269" s="1"/>
     </row>
-    <row r="270" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A270" s="1"/>
       <c r="B270" s="1"/>
       <c r="C270" s="1"/>
@@ -14091,7 +14057,7 @@
       <c r="AP270" s="1"/>
       <c r="AQ270" s="1"/>
     </row>
-    <row r="271" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A271" s="1"/>
       <c r="B271" s="1"/>
       <c r="C271" s="1"/>
@@ -14136,7 +14102,7 @@
       <c r="AP271" s="1"/>
       <c r="AQ271" s="1"/>
     </row>
-    <row r="272" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A272" s="1"/>
       <c r="B272" s="1"/>
       <c r="C272" s="1"/>
@@ -14181,7 +14147,7 @@
       <c r="AP272" s="1"/>
       <c r="AQ272" s="1"/>
     </row>
-    <row r="273" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A273" s="1"/>
       <c r="B273" s="1"/>
       <c r="C273" s="1"/>
@@ -14226,7 +14192,7 @@
       <c r="AP273" s="1"/>
       <c r="AQ273" s="1"/>
     </row>
-    <row r="274" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A274" s="1"/>
       <c r="B274" s="1"/>
       <c r="C274" s="1"/>
@@ -14271,7 +14237,7 @@
       <c r="AP274" s="1"/>
       <c r="AQ274" s="1"/>
     </row>
-    <row r="275" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A275" s="1"/>
       <c r="B275" s="1"/>
       <c r="C275" s="1"/>
@@ -14316,7 +14282,7 @@
       <c r="AP275" s="1"/>
       <c r="AQ275" s="1"/>
     </row>
-    <row r="276" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A276" s="1"/>
       <c r="B276" s="1"/>
       <c r="C276" s="1"/>
@@ -14361,7 +14327,7 @@
       <c r="AP276" s="1"/>
       <c r="AQ276" s="1"/>
     </row>
-    <row r="277" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A277" s="1"/>
       <c r="B277" s="1"/>
       <c r="C277" s="1"/>
@@ -14406,7 +14372,7 @@
       <c r="AP277" s="1"/>
       <c r="AQ277" s="1"/>
     </row>
-    <row r="278" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A278" s="1"/>
       <c r="B278" s="1"/>
       <c r="C278" s="1"/>
@@ -14451,7 +14417,7 @@
       <c r="AP278" s="1"/>
       <c r="AQ278" s="1"/>
     </row>
-    <row r="279" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A279" s="1"/>
       <c r="B279" s="1"/>
       <c r="C279" s="1"/>
@@ -14496,7 +14462,7 @@
       <c r="AP279" s="1"/>
       <c r="AQ279" s="1"/>
     </row>
-    <row r="280" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A280" s="1"/>
       <c r="B280" s="1"/>
       <c r="C280" s="1"/>
@@ -14541,7 +14507,7 @@
       <c r="AP280" s="1"/>
       <c r="AQ280" s="1"/>
     </row>
-    <row r="281" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A281" s="1"/>
       <c r="B281" s="1"/>
       <c r="C281" s="1"/>
@@ -14586,7 +14552,7 @@
       <c r="AP281" s="1"/>
       <c r="AQ281" s="1"/>
     </row>
-    <row r="282" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A282" s="1"/>
       <c r="B282" s="1"/>
       <c r="C282" s="1"/>
@@ -14631,7 +14597,7 @@
       <c r="AP282" s="1"/>
       <c r="AQ282" s="1"/>
     </row>
-    <row r="283" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A283" s="1"/>
       <c r="B283" s="1"/>
       <c r="C283" s="1"/>
@@ -14676,7 +14642,7 @@
       <c r="AP283" s="1"/>
       <c r="AQ283" s="1"/>
     </row>
-    <row r="284" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A284" s="1"/>
       <c r="B284" s="1"/>
       <c r="C284" s="1"/>
@@ -14721,7 +14687,7 @@
       <c r="AP284" s="1"/>
       <c r="AQ284" s="1"/>
     </row>
-    <row r="285" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A285" s="1"/>
       <c r="B285" s="1"/>
       <c r="C285" s="1"/>
@@ -14766,7 +14732,7 @@
       <c r="AP285" s="1"/>
       <c r="AQ285" s="1"/>
     </row>
-    <row r="286" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A286" s="1"/>
       <c r="B286" s="1"/>
       <c r="C286" s="1"/>
@@ -14811,7 +14777,7 @@
       <c r="AP286" s="1"/>
       <c r="AQ286" s="1"/>
     </row>
-    <row r="287" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A287" s="1"/>
       <c r="B287" s="1"/>
       <c r="C287" s="1"/>
@@ -14856,7 +14822,7 @@
       <c r="AP287" s="1"/>
       <c r="AQ287" s="1"/>
     </row>
-    <row r="288" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A288" s="1"/>
       <c r="B288" s="1"/>
       <c r="C288" s="1"/>
@@ -14901,7 +14867,7 @@
       <c r="AP288" s="1"/>
       <c r="AQ288" s="1"/>
     </row>
-    <row r="289" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A289" s="1"/>
       <c r="B289" s="1"/>
       <c r="C289" s="1"/>
@@ -14946,7 +14912,7 @@
       <c r="AP289" s="1"/>
       <c r="AQ289" s="1"/>
     </row>
-    <row r="290" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A290" s="1"/>
       <c r="B290" s="1"/>
       <c r="C290" s="1"/>
@@ -14991,7 +14957,7 @@
       <c r="AP290" s="1"/>
       <c r="AQ290" s="1"/>
     </row>
-    <row r="291" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A291" s="1"/>
       <c r="B291" s="1"/>
       <c r="C291" s="1"/>
@@ -15036,7 +15002,7 @@
       <c r="AP291" s="1"/>
       <c r="AQ291" s="1"/>
     </row>
-    <row r="292" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A292" s="1"/>
       <c r="B292" s="1"/>
       <c r="C292" s="1"/>
@@ -15081,7 +15047,7 @@
       <c r="AP292" s="1"/>
       <c r="AQ292" s="1"/>
     </row>
-    <row r="293" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A293" s="1"/>
       <c r="B293" s="1"/>
       <c r="C293" s="1"/>
@@ -15126,7 +15092,7 @@
       <c r="AP293" s="1"/>
       <c r="AQ293" s="1"/>
     </row>
-    <row r="294" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A294" s="1"/>
       <c r="B294" s="1"/>
       <c r="C294" s="1"/>
@@ -15171,7 +15137,7 @@
       <c r="AP294" s="1"/>
       <c r="AQ294" s="1"/>
     </row>
-    <row r="295" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A295" s="1"/>
       <c r="B295" s="1"/>
       <c r="C295" s="1"/>
@@ -15216,7 +15182,7 @@
       <c r="AP295" s="1"/>
       <c r="AQ295" s="1"/>
     </row>
-    <row r="296" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A296" s="1"/>
       <c r="B296" s="1"/>
       <c r="C296" s="1"/>
@@ -15261,7 +15227,7 @@
       <c r="AP296" s="1"/>
       <c r="AQ296" s="1"/>
     </row>
-    <row r="297" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A297" s="1"/>
       <c r="B297" s="1"/>
       <c r="C297" s="1"/>
@@ -15306,7 +15272,7 @@
       <c r="AP297" s="1"/>
       <c r="AQ297" s="1"/>
     </row>
-    <row r="298" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A298" s="1"/>
       <c r="B298" s="1"/>
       <c r="C298" s="1"/>
@@ -15351,7 +15317,7 @@
       <c r="AP298" s="1"/>
       <c r="AQ298" s="1"/>
     </row>
-    <row r="299" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A299" s="1"/>
       <c r="B299" s="1"/>
       <c r="C299" s="1"/>
@@ -15396,7 +15362,7 @@
       <c r="AP299" s="1"/>
       <c r="AQ299" s="1"/>
     </row>
-    <row r="300" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A300" s="1"/>
       <c r="B300" s="1"/>
       <c r="C300" s="1"/>
@@ -15441,7 +15407,7 @@
       <c r="AP300" s="1"/>
       <c r="AQ300" s="1"/>
     </row>
-    <row r="301" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A301" s="1"/>
       <c r="B301" s="1"/>
       <c r="C301" s="1"/>
@@ -15486,7 +15452,7 @@
       <c r="AP301" s="1"/>
       <c r="AQ301" s="1"/>
     </row>
-    <row r="302" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A302" s="1"/>
       <c r="B302" s="1"/>
       <c r="C302" s="1"/>
@@ -15531,7 +15497,7 @@
       <c r="AP302" s="1"/>
       <c r="AQ302" s="1"/>
     </row>
-    <row r="303" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A303" s="1"/>
       <c r="B303" s="1"/>
       <c r="C303" s="1"/>
@@ -15576,7 +15542,7 @@
       <c r="AP303" s="1"/>
       <c r="AQ303" s="1"/>
     </row>
-    <row r="304" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A304" s="1"/>
       <c r="B304" s="1"/>
       <c r="C304" s="1"/>
@@ -15621,7 +15587,7 @@
       <c r="AP304" s="1"/>
       <c r="AQ304" s="1"/>
     </row>
-    <row r="305" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A305" s="1"/>
       <c r="B305" s="1"/>
       <c r="C305" s="1"/>
@@ -15666,7 +15632,7 @@
       <c r="AP305" s="1"/>
       <c r="AQ305" s="1"/>
     </row>
-    <row r="306" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A306" s="1"/>
       <c r="B306" s="1"/>
       <c r="C306" s="1"/>
@@ -15711,7 +15677,7 @@
       <c r="AP306" s="1"/>
       <c r="AQ306" s="1"/>
     </row>
-    <row r="307" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A307" s="1"/>
       <c r="B307" s="1"/>
       <c r="C307" s="1"/>
@@ -15756,7 +15722,7 @@
       <c r="AP307" s="1"/>
       <c r="AQ307" s="1"/>
     </row>
-    <row r="308" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A308" s="1"/>
       <c r="B308" s="1"/>
       <c r="C308" s="1"/>
@@ -15801,7 +15767,7 @@
       <c r="AP308" s="1"/>
       <c r="AQ308" s="1"/>
     </row>
-    <row r="309" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A309" s="1"/>
       <c r="B309" s="1"/>
       <c r="C309" s="1"/>
@@ -15846,7 +15812,7 @@
       <c r="AP309" s="1"/>
       <c r="AQ309" s="1"/>
     </row>
-    <row r="310" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A310" s="1"/>
       <c r="B310" s="1"/>
       <c r="C310" s="1"/>
@@ -15891,7 +15857,7 @@
       <c r="AP310" s="1"/>
       <c r="AQ310" s="1"/>
     </row>
-    <row r="311" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A311" s="1"/>
       <c r="B311" s="1"/>
       <c r="C311" s="1"/>
@@ -15936,7 +15902,7 @@
       <c r="AP311" s="1"/>
       <c r="AQ311" s="1"/>
     </row>
-    <row r="312" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A312" s="1"/>
       <c r="B312" s="1"/>
       <c r="C312" s="1"/>
@@ -15981,7 +15947,7 @@
       <c r="AP312" s="1"/>
       <c r="AQ312" s="1"/>
     </row>
-    <row r="313" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A313" s="1"/>
       <c r="B313" s="1"/>
       <c r="C313" s="1"/>
@@ -16026,7 +15992,7 @@
       <c r="AP313" s="1"/>
       <c r="AQ313" s="1"/>
     </row>
-    <row r="314" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A314" s="1"/>
       <c r="B314" s="1"/>
       <c r="C314" s="1"/>
@@ -16071,7 +16037,7 @@
       <c r="AP314" s="1"/>
       <c r="AQ314" s="1"/>
     </row>
-    <row r="315" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A315" s="1"/>
       <c r="B315" s="1"/>
       <c r="C315" s="1"/>
@@ -16116,7 +16082,7 @@
       <c r="AP315" s="1"/>
       <c r="AQ315" s="1"/>
     </row>
-    <row r="316" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A316" s="1"/>
       <c r="B316" s="1"/>
       <c r="C316" s="1"/>
@@ -16161,7 +16127,7 @@
       <c r="AP316" s="1"/>
       <c r="AQ316" s="1"/>
     </row>
-    <row r="317" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A317" s="1"/>
       <c r="B317" s="1"/>
       <c r="C317" s="1"/>
@@ -16206,7 +16172,7 @@
       <c r="AP317" s="1"/>
       <c r="AQ317" s="1"/>
     </row>
-    <row r="318" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A318" s="1"/>
       <c r="B318" s="1"/>
       <c r="C318" s="1"/>
@@ -16251,7 +16217,7 @@
       <c r="AP318" s="1"/>
       <c r="AQ318" s="1"/>
     </row>
-    <row r="319" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A319" s="1"/>
       <c r="B319" s="1"/>
       <c r="C319" s="1"/>
@@ -16296,7 +16262,7 @@
       <c r="AP319" s="1"/>
       <c r="AQ319" s="1"/>
     </row>
-    <row r="320" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A320" s="1"/>
       <c r="B320" s="1"/>
       <c r="C320" s="1"/>
@@ -16341,7 +16307,7 @@
       <c r="AP320" s="1"/>
       <c r="AQ320" s="1"/>
     </row>
-    <row r="321" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A321" s="1"/>
       <c r="B321" s="1"/>
       <c r="C321" s="1"/>
@@ -16386,7 +16352,7 @@
       <c r="AP321" s="1"/>
       <c r="AQ321" s="1"/>
     </row>
-    <row r="322" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A322" s="1"/>
       <c r="B322" s="1"/>
       <c r="C322" s="1"/>
@@ -16431,7 +16397,7 @@
       <c r="AP322" s="1"/>
       <c r="AQ322" s="1"/>
     </row>
-    <row r="323" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A323" s="1"/>
       <c r="B323" s="1"/>
       <c r="C323" s="1"/>
@@ -16476,7 +16442,7 @@
       <c r="AP323" s="1"/>
       <c r="AQ323" s="1"/>
     </row>
-    <row r="324" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A324" s="1"/>
       <c r="B324" s="1"/>
       <c r="C324" s="1"/>
@@ -16521,7 +16487,7 @@
       <c r="AP324" s="1"/>
       <c r="AQ324" s="1"/>
     </row>
-    <row r="325" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A325" s="1"/>
       <c r="B325" s="1"/>
       <c r="C325" s="1"/>
@@ -16566,7 +16532,7 @@
       <c r="AP325" s="1"/>
       <c r="AQ325" s="1"/>
     </row>
-    <row r="326" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A326" s="1"/>
       <c r="B326" s="1"/>
       <c r="C326" s="1"/>
@@ -16611,7 +16577,7 @@
       <c r="AP326" s="1"/>
       <c r="AQ326" s="1"/>
     </row>
-    <row r="327" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A327" s="1"/>
       <c r="B327" s="1"/>
       <c r="C327" s="1"/>
@@ -16656,7 +16622,7 @@
       <c r="AP327" s="1"/>
       <c r="AQ327" s="1"/>
     </row>
-    <row r="328" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A328" s="1"/>
       <c r="B328" s="1"/>
       <c r="C328" s="1"/>
@@ -16701,7 +16667,7 @@
       <c r="AP328" s="1"/>
       <c r="AQ328" s="1"/>
     </row>
-    <row r="329" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A329" s="1"/>
       <c r="B329" s="1"/>
       <c r="C329" s="1"/>
@@ -16746,7 +16712,7 @@
       <c r="AP329" s="1"/>
       <c r="AQ329" s="1"/>
     </row>
-    <row r="330" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A330" s="1"/>
       <c r="B330" s="1"/>
       <c r="C330" s="1"/>
@@ -16791,7 +16757,7 @@
       <c r="AP330" s="1"/>
       <c r="AQ330" s="1"/>
     </row>
-    <row r="331" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A331" s="1"/>
       <c r="B331" s="1"/>
       <c r="C331" s="1"/>
@@ -16836,7 +16802,7 @@
       <c r="AP331" s="1"/>
       <c r="AQ331" s="1"/>
     </row>
-    <row r="332" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A332" s="1"/>
       <c r="B332" s="1"/>
       <c r="C332" s="1"/>
@@ -16881,7 +16847,7 @@
       <c r="AP332" s="1"/>
       <c r="AQ332" s="1"/>
     </row>
-    <row r="333" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A333" s="1"/>
       <c r="B333" s="1"/>
       <c r="C333" s="1"/>
@@ -16926,7 +16892,7 @@
       <c r="AP333" s="1"/>
       <c r="AQ333" s="1"/>
     </row>
-    <row r="334" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A334" s="1"/>
       <c r="B334" s="1"/>
       <c r="C334" s="1"/>
@@ -16971,7 +16937,7 @@
       <c r="AP334" s="1"/>
       <c r="AQ334" s="1"/>
     </row>
-    <row r="335" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A335" s="1"/>
       <c r="B335" s="1"/>
       <c r="C335" s="1"/>
@@ -17016,7 +16982,7 @@
       <c r="AP335" s="1"/>
       <c r="AQ335" s="1"/>
     </row>
-    <row r="336" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A336" s="1"/>
       <c r="B336" s="1"/>
       <c r="C336" s="1"/>
@@ -17061,7 +17027,7 @@
       <c r="AP336" s="1"/>
       <c r="AQ336" s="1"/>
     </row>
-    <row r="337" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A337" s="1"/>
       <c r="B337" s="1"/>
       <c r="C337" s="1"/>
@@ -17106,7 +17072,7 @@
       <c r="AP337" s="1"/>
       <c r="AQ337" s="1"/>
     </row>
-    <row r="338" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A338" s="1"/>
       <c r="B338" s="1"/>
       <c r="C338" s="1"/>
@@ -17151,7 +17117,7 @@
       <c r="AP338" s="1"/>
       <c r="AQ338" s="1"/>
     </row>
-    <row r="339" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A339" s="1"/>
       <c r="B339" s="1"/>
       <c r="C339" s="1"/>
@@ -17196,7 +17162,7 @@
       <c r="AP339" s="1"/>
       <c r="AQ339" s="1"/>
     </row>
-    <row r="340" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A340" s="1"/>
       <c r="B340" s="1"/>
       <c r="C340" s="1"/>
@@ -17241,7 +17207,7 @@
       <c r="AP340" s="1"/>
       <c r="AQ340" s="1"/>
     </row>
-    <row r="341" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A341" s="1"/>
       <c r="B341" s="1"/>
       <c r="C341" s="1"/>
@@ -17286,7 +17252,7 @@
       <c r="AP341" s="1"/>
       <c r="AQ341" s="1"/>
     </row>
-    <row r="342" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A342" s="1"/>
       <c r="B342" s="1"/>
       <c r="C342" s="1"/>
@@ -17331,7 +17297,7 @@
       <c r="AP342" s="1"/>
       <c r="AQ342" s="1"/>
     </row>
-    <row r="343" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A343" s="1"/>
       <c r="B343" s="1"/>
       <c r="C343" s="1"/>
@@ -17376,7 +17342,7 @@
       <c r="AP343" s="1"/>
       <c r="AQ343" s="1"/>
     </row>
-    <row r="344" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A344" s="1"/>
       <c r="B344" s="1"/>
       <c r="C344" s="1"/>
@@ -17421,7 +17387,7 @@
       <c r="AP344" s="1"/>
       <c r="AQ344" s="1"/>
     </row>
-    <row r="345" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A345" s="1"/>
       <c r="B345" s="1"/>
       <c r="C345" s="1"/>
@@ -17466,7 +17432,7 @@
       <c r="AP345" s="1"/>
       <c r="AQ345" s="1"/>
     </row>
-    <row r="346" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A346" s="1"/>
       <c r="B346" s="1"/>
       <c r="C346" s="1"/>
@@ -17511,7 +17477,7 @@
       <c r="AP346" s="1"/>
       <c r="AQ346" s="1"/>
     </row>
-    <row r="347" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A347" s="1"/>
       <c r="B347" s="1"/>
       <c r="C347" s="1"/>
@@ -17556,7 +17522,7 @@
       <c r="AP347" s="1"/>
       <c r="AQ347" s="1"/>
     </row>
-    <row r="348" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A348" s="1"/>
       <c r="B348" s="1"/>
       <c r="C348" s="1"/>
@@ -17601,7 +17567,7 @@
       <c r="AP348" s="1"/>
       <c r="AQ348" s="1"/>
     </row>
-    <row r="349" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A349" s="1"/>
       <c r="B349" s="1"/>
       <c r="C349" s="1"/>
@@ -17646,7 +17612,7 @@
       <c r="AP349" s="1"/>
       <c r="AQ349" s="1"/>
     </row>
-    <row r="350" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A350" s="1"/>
       <c r="B350" s="1"/>
       <c r="C350" s="1"/>
@@ -17691,7 +17657,7 @@
       <c r="AP350" s="1"/>
       <c r="AQ350" s="1"/>
     </row>
-    <row r="351" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A351" s="1"/>
       <c r="B351" s="1"/>
       <c r="C351" s="1"/>
@@ -17736,7 +17702,7 @@
       <c r="AP351" s="1"/>
       <c r="AQ351" s="1"/>
     </row>
-    <row r="352" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A352" s="1"/>
       <c r="B352" s="1"/>
       <c r="C352" s="1"/>
@@ -17781,7 +17747,7 @@
       <c r="AP352" s="1"/>
       <c r="AQ352" s="1"/>
     </row>
-    <row r="353" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A353" s="1"/>
       <c r="B353" s="1"/>
       <c r="C353" s="1"/>
@@ -17826,7 +17792,7 @@
       <c r="AP353" s="1"/>
       <c r="AQ353" s="1"/>
     </row>
-    <row r="354" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A354" s="1"/>
       <c r="B354" s="1"/>
       <c r="C354" s="1"/>
@@ -17871,7 +17837,7 @@
       <c r="AP354" s="1"/>
       <c r="AQ354" s="1"/>
     </row>
-    <row r="355" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A355" s="1"/>
       <c r="B355" s="1"/>
       <c r="C355" s="1"/>
@@ -17916,7 +17882,7 @@
       <c r="AP355" s="1"/>
       <c r="AQ355" s="1"/>
     </row>
-    <row r="356" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A356" s="1"/>
       <c r="B356" s="1"/>
       <c r="C356" s="1"/>
@@ -17961,7 +17927,7 @@
       <c r="AP356" s="1"/>
       <c r="AQ356" s="1"/>
     </row>
-    <row r="357" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A357" s="1"/>
       <c r="B357" s="1"/>
       <c r="C357" s="1"/>
@@ -18006,7 +17972,7 @@
       <c r="AP357" s="1"/>
       <c r="AQ357" s="1"/>
     </row>
-    <row r="358" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A358" s="1"/>
       <c r="B358" s="1"/>
       <c r="C358" s="1"/>
@@ -18051,7 +18017,7 @@
       <c r="AP358" s="1"/>
       <c r="AQ358" s="1"/>
     </row>
-    <row r="359" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A359" s="1"/>
       <c r="B359" s="1"/>
       <c r="C359" s="1"/>
@@ -18096,7 +18062,7 @@
       <c r="AP359" s="1"/>
       <c r="AQ359" s="1"/>
     </row>
-    <row r="360" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A360" s="1"/>
       <c r="B360" s="1"/>
       <c r="C360" s="1"/>
@@ -18141,7 +18107,7 @@
       <c r="AP360" s="1"/>
       <c r="AQ360" s="1"/>
     </row>
-    <row r="361" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A361" s="1"/>
       <c r="B361" s="1"/>
       <c r="C361" s="1"/>
@@ -18186,7 +18152,7 @@
       <c r="AP361" s="1"/>
       <c r="AQ361" s="1"/>
     </row>
-    <row r="362" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A362" s="1"/>
       <c r="B362" s="1"/>
       <c r="C362" s="1"/>
@@ -18231,7 +18197,7 @@
       <c r="AP362" s="1"/>
       <c r="AQ362" s="1"/>
     </row>
-    <row r="363" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A363" s="1"/>
       <c r="B363" s="1"/>
       <c r="C363" s="1"/>
@@ -18276,7 +18242,7 @@
       <c r="AP363" s="1"/>
       <c r="AQ363" s="1"/>
     </row>
-    <row r="364" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A364" s="1"/>
       <c r="B364" s="1"/>
       <c r="C364" s="1"/>
@@ -18321,7 +18287,7 @@
       <c r="AP364" s="1"/>
       <c r="AQ364" s="1"/>
     </row>
-    <row r="365" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A365" s="1"/>
       <c r="B365" s="1"/>
       <c r="C365" s="1"/>
@@ -18366,7 +18332,7 @@
       <c r="AP365" s="1"/>
       <c r="AQ365" s="1"/>
     </row>
-    <row r="366" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A366" s="1"/>
       <c r="B366" s="1"/>
       <c r="C366" s="1"/>
@@ -18411,7 +18377,7 @@
       <c r="AP366" s="1"/>
       <c r="AQ366" s="1"/>
     </row>
-    <row r="367" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A367" s="1"/>
       <c r="B367" s="1"/>
       <c r="C367" s="1"/>
@@ -18456,7 +18422,7 @@
       <c r="AP367" s="1"/>
       <c r="AQ367" s="1"/>
     </row>
-    <row r="368" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A368" s="1"/>
       <c r="B368" s="1"/>
       <c r="C368" s="1"/>
@@ -18501,7 +18467,7 @@
       <c r="AP368" s="1"/>
       <c r="AQ368" s="1"/>
     </row>
-    <row r="369" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A369" s="1"/>
       <c r="B369" s="1"/>
       <c r="C369" s="1"/>
@@ -18546,7 +18512,7 @@
       <c r="AP369" s="1"/>
       <c r="AQ369" s="1"/>
     </row>
-    <row r="370" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A370" s="1"/>
       <c r="B370" s="1"/>
       <c r="C370" s="1"/>
@@ -18591,7 +18557,7 @@
       <c r="AP370" s="1"/>
       <c r="AQ370" s="1"/>
     </row>
-    <row r="371" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A371" s="1"/>
       <c r="B371" s="1"/>
       <c r="C371" s="1"/>
@@ -18636,7 +18602,7 @@
       <c r="AP371" s="1"/>
       <c r="AQ371" s="1"/>
     </row>
-    <row r="372" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A372" s="1"/>
       <c r="B372" s="1"/>
       <c r="C372" s="1"/>
@@ -18681,7 +18647,7 @@
       <c r="AP372" s="1"/>
       <c r="AQ372" s="1"/>
     </row>
-    <row r="373" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A373" s="1"/>
       <c r="B373" s="1"/>
       <c r="C373" s="1"/>
@@ -18726,7 +18692,7 @@
       <c r="AP373" s="1"/>
       <c r="AQ373" s="1"/>
     </row>
-    <row r="374" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A374" s="1"/>
       <c r="B374" s="1"/>
       <c r="C374" s="1"/>
@@ -18771,7 +18737,7 @@
       <c r="AP374" s="1"/>
       <c r="AQ374" s="1"/>
     </row>
-    <row r="375" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A375" s="1"/>
       <c r="B375" s="1"/>
       <c r="C375" s="1"/>
@@ -18816,7 +18782,7 @@
       <c r="AP375" s="1"/>
       <c r="AQ375" s="1"/>
     </row>
-    <row r="376" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A376" s="1"/>
       <c r="B376" s="1"/>
       <c r="C376" s="1"/>
@@ -18861,7 +18827,7 @@
       <c r="AP376" s="1"/>
       <c r="AQ376" s="1"/>
     </row>
-    <row r="377" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A377" s="1"/>
       <c r="B377" s="1"/>
       <c r="C377" s="1"/>
@@ -18906,7 +18872,7 @@
       <c r="AP377" s="1"/>
       <c r="AQ377" s="1"/>
     </row>
-    <row r="378" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A378" s="1"/>
       <c r="B378" s="1"/>
       <c r="C378" s="1"/>
@@ -18951,7 +18917,7 @@
       <c r="AP378" s="1"/>
       <c r="AQ378" s="1"/>
     </row>
-    <row r="379" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A379" s="1"/>
       <c r="B379" s="1"/>
       <c r="C379" s="1"/>
@@ -18996,7 +18962,7 @@
       <c r="AP379" s="1"/>
       <c r="AQ379" s="1"/>
     </row>
-    <row r="380" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A380" s="1"/>
       <c r="B380" s="1"/>
       <c r="C380" s="1"/>
@@ -19041,7 +19007,7 @@
       <c r="AP380" s="1"/>
       <c r="AQ380" s="1"/>
     </row>
-    <row r="381" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A381" s="1"/>
       <c r="B381" s="1"/>
       <c r="C381" s="1"/>
@@ -19086,7 +19052,7 @@
       <c r="AP381" s="1"/>
       <c r="AQ381" s="1"/>
     </row>
-    <row r="382" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A382" s="1"/>
       <c r="B382" s="1"/>
       <c r="C382" s="1"/>
@@ -19131,7 +19097,7 @@
       <c r="AP382" s="1"/>
       <c r="AQ382" s="1"/>
     </row>
-    <row r="383" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A383" s="1"/>
       <c r="B383" s="1"/>
       <c r="C383" s="1"/>
@@ -19176,7 +19142,7 @@
       <c r="AP383" s="1"/>
       <c r="AQ383" s="1"/>
     </row>
-    <row r="384" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A384" s="1"/>
       <c r="B384" s="1"/>
       <c r="C384" s="1"/>
@@ -19221,7 +19187,7 @@
       <c r="AP384" s="1"/>
       <c r="AQ384" s="1"/>
     </row>
-    <row r="385" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A385" s="1"/>
       <c r="B385" s="1"/>
       <c r="C385" s="1"/>
@@ -19266,7 +19232,7 @@
       <c r="AP385" s="1"/>
       <c r="AQ385" s="1"/>
     </row>
-    <row r="386" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A386" s="1"/>
       <c r="B386" s="1"/>
       <c r="C386" s="1"/>
@@ -19311,7 +19277,7 @@
       <c r="AP386" s="1"/>
       <c r="AQ386" s="1"/>
     </row>
-    <row r="387" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A387" s="1"/>
       <c r="B387" s="1"/>
       <c r="C387" s="1"/>
@@ -19356,7 +19322,7 @@
       <c r="AP387" s="1"/>
       <c r="AQ387" s="1"/>
     </row>
-    <row r="388" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A388" s="1"/>
       <c r="B388" s="1"/>
       <c r="C388" s="1"/>
@@ -19401,7 +19367,7 @@
       <c r="AP388" s="1"/>
       <c r="AQ388" s="1"/>
     </row>
-    <row r="389" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A389" s="1"/>
       <c r="B389" s="1"/>
       <c r="C389" s="1"/>
@@ -19446,7 +19412,7 @@
       <c r="AP389" s="1"/>
       <c r="AQ389" s="1"/>
     </row>
-    <row r="390" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A390" s="1"/>
       <c r="B390" s="1"/>
       <c r="C390" s="1"/>
@@ -19491,7 +19457,7 @@
       <c r="AP390" s="1"/>
       <c r="AQ390" s="1"/>
     </row>
-    <row r="391" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A391" s="1"/>
       <c r="B391" s="1"/>
       <c r="C391" s="1"/>
@@ -19536,7 +19502,7 @@
       <c r="AP391" s="1"/>
       <c r="AQ391" s="1"/>
     </row>
-    <row r="392" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A392" s="1"/>
       <c r="B392" s="1"/>
       <c r="C392" s="1"/>
@@ -19581,7 +19547,7 @@
       <c r="AP392" s="1"/>
       <c r="AQ392" s="1"/>
     </row>
-    <row r="393" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A393" s="1"/>
       <c r="B393" s="1"/>
       <c r="C393" s="1"/>
@@ -19626,7 +19592,7 @@
       <c r="AP393" s="1"/>
       <c r="AQ393" s="1"/>
     </row>
-    <row r="394" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A394" s="1"/>
       <c r="B394" s="1"/>
       <c r="C394" s="1"/>
@@ -19671,7 +19637,7 @@
       <c r="AP394" s="1"/>
       <c r="AQ394" s="1"/>
     </row>
-    <row r="395" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A395" s="1"/>
       <c r="B395" s="1"/>
       <c r="C395" s="1"/>
@@ -19716,7 +19682,7 @@
       <c r="AP395" s="1"/>
       <c r="AQ395" s="1"/>
     </row>
-    <row r="396" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A396" s="1"/>
       <c r="B396" s="1"/>
       <c r="C396" s="1"/>
@@ -19761,7 +19727,7 @@
       <c r="AP396" s="1"/>
       <c r="AQ396" s="1"/>
     </row>
-    <row r="397" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A397" s="1"/>
       <c r="B397" s="1"/>
       <c r="C397" s="1"/>
@@ -19806,7 +19772,7 @@
       <c r="AP397" s="1"/>
       <c r="AQ397" s="1"/>
     </row>
-    <row r="398" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A398" s="1"/>
       <c r="B398" s="1"/>
       <c r="C398" s="1"/>
@@ -19851,7 +19817,7 @@
       <c r="AP398" s="1"/>
       <c r="AQ398" s="1"/>
     </row>
-    <row r="399" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A399" s="1"/>
       <c r="B399" s="1"/>
       <c r="C399" s="1"/>
@@ -19896,7 +19862,7 @@
       <c r="AP399" s="1"/>
       <c r="AQ399" s="1"/>
     </row>
-    <row r="400" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A400" s="1"/>
       <c r="B400" s="1"/>
       <c r="C400" s="1"/>
@@ -19941,7 +19907,7 @@
       <c r="AP400" s="1"/>
       <c r="AQ400" s="1"/>
     </row>
-    <row r="401" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A401" s="1"/>
       <c r="B401" s="1"/>
       <c r="C401" s="1"/>
@@ -19986,7 +19952,7 @@
       <c r="AP401" s="1"/>
       <c r="AQ401" s="1"/>
     </row>
-    <row r="402" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A402" s="1"/>
       <c r="B402" s="1"/>
       <c r="C402" s="1"/>
@@ -20033,37 +19999,12 @@
     </row>
   </sheetData>
   <mergeCells count="53">
-    <mergeCell ref="C61:E61"/>
-    <mergeCell ref="F61:G61"/>
-    <mergeCell ref="C62:E62"/>
-    <mergeCell ref="F62:G62"/>
-    <mergeCell ref="C63:E63"/>
-    <mergeCell ref="F63:G63"/>
-    <mergeCell ref="F64:G64"/>
-    <mergeCell ref="A68:C68"/>
-    <mergeCell ref="A69:C69"/>
-    <mergeCell ref="A70:C70"/>
-    <mergeCell ref="C64:E64"/>
-    <mergeCell ref="C65:E65"/>
-    <mergeCell ref="F65:G65"/>
-    <mergeCell ref="C66:E66"/>
-    <mergeCell ref="F66:G66"/>
-    <mergeCell ref="C67:E67"/>
-    <mergeCell ref="F67:G67"/>
-    <mergeCell ref="P8:V8"/>
-    <mergeCell ref="W9:W11"/>
-    <mergeCell ref="A4:X4"/>
-    <mergeCell ref="A6:X6"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="F8:O8"/>
-    <mergeCell ref="A9:H9"/>
-    <mergeCell ref="I9:V9"/>
-    <mergeCell ref="Q37:Q38"/>
-    <mergeCell ref="R37:R38"/>
-    <mergeCell ref="S37:S38"/>
-    <mergeCell ref="T37:T38"/>
-    <mergeCell ref="U37:U38"/>
+    <mergeCell ref="A60:G60"/>
+    <mergeCell ref="A40:G40"/>
+    <mergeCell ref="A48:G48"/>
+    <mergeCell ref="A56:G56"/>
+    <mergeCell ref="C39:E39"/>
+    <mergeCell ref="F39:G39"/>
     <mergeCell ref="O37:O38"/>
     <mergeCell ref="P37:P38"/>
     <mergeCell ref="E10:G10"/>
@@ -20080,12 +20021,37 @@
     <mergeCell ref="L37:L38"/>
     <mergeCell ref="M37:M38"/>
     <mergeCell ref="N37:N38"/>
-    <mergeCell ref="A60:G60"/>
-    <mergeCell ref="A40:G40"/>
-    <mergeCell ref="A48:G48"/>
-    <mergeCell ref="A56:G56"/>
-    <mergeCell ref="C39:E39"/>
-    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="Q37:Q38"/>
+    <mergeCell ref="R37:R38"/>
+    <mergeCell ref="S37:S38"/>
+    <mergeCell ref="T37:T38"/>
+    <mergeCell ref="U37:U38"/>
+    <mergeCell ref="P8:V8"/>
+    <mergeCell ref="W9:W11"/>
+    <mergeCell ref="A4:X4"/>
+    <mergeCell ref="A6:X6"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="F8:O8"/>
+    <mergeCell ref="A9:H9"/>
+    <mergeCell ref="I9:V9"/>
+    <mergeCell ref="F64:G64"/>
+    <mergeCell ref="A68:C68"/>
+    <mergeCell ref="A69:C69"/>
+    <mergeCell ref="A70:C70"/>
+    <mergeCell ref="C64:E64"/>
+    <mergeCell ref="C65:E65"/>
+    <mergeCell ref="F65:G65"/>
+    <mergeCell ref="C66:E66"/>
+    <mergeCell ref="F66:G66"/>
+    <mergeCell ref="C67:E67"/>
+    <mergeCell ref="F67:G67"/>
+    <mergeCell ref="C61:E61"/>
+    <mergeCell ref="F61:G61"/>
+    <mergeCell ref="C62:E62"/>
+    <mergeCell ref="F62:G62"/>
+    <mergeCell ref="C63:E63"/>
+    <mergeCell ref="F63:G63"/>
   </mergeCells>
   <conditionalFormatting sqref="P70">
     <cfRule type="cellIs" dxfId="3" priority="1" operator="greaterThan">
